--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004380.94197691</v>
+        <v>2000617.586362894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15970203.07509978</v>
+        <v>15970203.07509977</v>
       </c>
     </row>
     <row r="8">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>49.44737795789111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>323.4140627900584</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>323.4140627900584</v>
       </c>
       <c r="G11" t="n">
-        <v>323.4140627900584</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>235.4157285475924</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>56.5874077514863</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>146.5112914528974</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>137.9229815788656</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>56.4003535969797</v>
       </c>
       <c r="G12" t="n">
-        <v>51.0982847122088</v>
+        <v>51.09828471220879</v>
       </c>
       <c r="H12" t="n">
         <v>11.22244430040398</v>
@@ -1505,7 +1505,7 @@
         <v>104.5017395264941</v>
       </c>
       <c r="U12" t="n">
-        <v>141.1113116019299</v>
+        <v>141.1113116019298</v>
       </c>
       <c r="V12" t="n">
         <v>153.5274671539238</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.5688040456684</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>87.28964750779058</v>
       </c>
       <c r="E13" t="n">
-        <v>87.21608956066969</v>
+        <v>44.93805969479041</v>
       </c>
       <c r="F13" t="n">
         <v>88.96554098043696</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>79.87807784015256</v>
       </c>
       <c r="I13" t="n">
-        <v>40.42492120849302</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.773133571201</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>163.0864650778911</v>
       </c>
       <c r="U13" t="n">
-        <v>87.14773000396127</v>
+        <v>215.7527383803918</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>196.5324172686642</v>
       </c>
       <c r="W13" t="n">
         <v>213.7099635894143</v>
@@ -1596,7 +1596,7 @@
         <v>164.9523845361269</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.0938061128032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.9628340031525</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E14" t="n">
-        <v>323.4140627900584</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>323.4140627900584</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>235.4157285475924</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.5112914528974</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>239.6077472808358</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>68.29489152150133</v>
       </c>
       <c r="F15" t="n">
-        <v>56.40035359697976</v>
+        <v>56.4003535969797</v>
       </c>
       <c r="G15" t="n">
         <v>51.0982847122088</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>87.21608956066969</v>
       </c>
       <c r="F16" t="n">
-        <v>74.02233747592251</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>98.96797721037782</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>79.87807784015256</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>19.16645618899275</v>
       </c>
       <c r="S16" t="n">
-        <v>119.773133571201</v>
+        <v>114.8107024333553</v>
       </c>
       <c r="T16" t="n">
         <v>163.0864650778911</v>
@@ -1830,10 +1830,10 @@
         <v>213.7099635894143</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>164.9523845361269</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.0938061128032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.4140627900584</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>322.4566120233789</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="F17" t="n">
-        <v>47.61380214440714</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>229.2331495206767</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>186.262465608774</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>62.00094324601464</v>
       </c>
       <c r="E18" t="n">
-        <v>68.29489152150138</v>
+        <v>68.29489152150133</v>
       </c>
       <c r="F18" t="n">
         <v>56.4003535969797</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.01591737084924</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>101.7159322959509</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>98.96797721037782</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>40.42492120849302</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S19" t="n">
-        <v>119.773133571201</v>
+        <v>28.84308651099643</v>
       </c>
       <c r="T19" t="n">
         <v>163.0864650778911</v>
@@ -2067,7 +2067,7 @@
         <v>213.7099635894143</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>164.9523845361269</v>
       </c>
       <c r="Y19" t="n">
         <v>154.0938061128032</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9237199550721</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>130.0115673876892</v>
+      </c>
+      <c r="F20" t="n">
         <v>323.4140627900584</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="H20" t="n">
         <v>235.4157285475924</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>300.5019102226756</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>62.00094324601464</v>
       </c>
       <c r="E21" t="n">
-        <v>68.29489152150138</v>
+        <v>68.29489152150133</v>
       </c>
       <c r="F21" t="n">
         <v>56.4003535969797</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>101.7159322959509</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.28964750779058</v>
       </c>
       <c r="E22" t="n">
         <v>87.21608956066969</v>
@@ -2253,13 +2253,13 @@
         <v>88.96554098043696</v>
       </c>
       <c r="G22" t="n">
-        <v>98.96797721037782</v>
+        <v>40.85637945260104</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.42492120849302</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T22" t="n">
-        <v>163.0864650778911</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>215.7527383803918</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>162.8627581428642</v>
+        <v>196.5324172686642</v>
       </c>
       <c r="W22" t="n">
         <v>213.7099635894143</v>
@@ -2307,7 +2307,7 @@
         <v>164.9523845361269</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>154.0938061128032</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>329.7026637955631</v>
       </c>
       <c r="C23" t="n">
         <v>322.4566120233789</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E23" t="n">
         <v>331.7705551759011</v>
       </c>
       <c r="F23" t="n">
-        <v>345.9383596266022</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>340.4239659699879</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>235.4157285475924</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.5874077514863</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>271.898606744797</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>300.5019102226756</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8.622177161192631</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.9995398504267</v>
+        <v>325.738667529885</v>
       </c>
     </row>
     <row r="24">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>324.9423105460993</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>310.9770234521984</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>302.2028630063123</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>66.78713445871982</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2715,25 +2715,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.7551116690976</v>
       </c>
       <c r="H28" t="n">
-        <v>146.6652122988724</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>107.2120556672128</v>
+        <v>22.58410408104722</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>85.95359064771257</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.5602680299208</v>
       </c>
       <c r="T28" t="n">
         <v>229.873599536611</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>140.7646581106974</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.2111004287077</v>
+        <v>392.0618307250218</v>
       </c>
       <c r="H29" t="n">
         <v>302.2028630063123</v>
       </c>
       <c r="I29" t="n">
-        <v>66.78713445871983</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>234.7946352404078</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>78.0095787591238</v>
       </c>
       <c r="I30" t="n">
-        <v>15.36559839243641</v>
+        <v>15.3655983924364</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>13.16843785973154</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7551116690976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.6652122988724</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>107.2120556672128</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.95359064771259</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>186.5602680299208</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.873599536611</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5398728391116</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3018,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.99593995255856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.4243015878903</v>
+        <v>27.81847565060024</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>324.5212208291064</v>
       </c>
       <c r="E32" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>355.6599974189294</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>350.1456037623151</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>245.1373663399197</v>
       </c>
       <c r="I32" t="n">
-        <v>9.721637792327272</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.43299006958054</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U32" t="n">
         <v>195.9841034011013</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>281.6202445371243</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>310.2235480150029</v>
       </c>
       <c r="X32" t="n">
         <v>328.4925823498812</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>335.4603053222124</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>78.0095787591238</v>
       </c>
       <c r="I33" t="n">
-        <v>15.36559839243641</v>
+        <v>15.3655983924364</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>111.4375700882781</v>
       </c>
       <c r="D34" t="n">
-        <v>97.01128530011783</v>
+        <v>97.01128530011786</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93772735299694</v>
+        <v>96.93772735299697</v>
       </c>
       <c r="F34" t="n">
-        <v>98.68717877276421</v>
+        <v>98.68717877276424</v>
       </c>
       <c r="G34" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H34" t="n">
-        <v>89.59971563247981</v>
+        <v>89.59971563247984</v>
       </c>
       <c r="I34" t="n">
-        <v>50.14655900082028</v>
+        <v>50.14655900082031</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.88809398132002</v>
+        <v>28.88809398132005</v>
       </c>
       <c r="S34" t="n">
-        <v>129.4947713635282</v>
+        <v>129.4947713635281</v>
       </c>
       <c r="T34" t="n">
         <v>172.8081028702184</v>
       </c>
       <c r="U34" t="n">
-        <v>225.4743761727196</v>
+        <v>225.4743761727189</v>
       </c>
       <c r="V34" t="n">
-        <v>206.2540550609914</v>
+        <v>206.2540550609915</v>
       </c>
       <c r="W34" t="n">
         <v>223.4316013817416</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>46.68649242211123</v>
+        <v>332.1782498157062</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>324.5212208291064</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>355.6599974189294</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>350.1456037623151</v>
+        <v>144.1894438689689</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>335.4603053222124</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93.21287443015916</v>
+        <v>93.21287443015919</v>
       </c>
       <c r="C36" t="n">
-        <v>92.08219146911614</v>
+        <v>92.08219146911617</v>
       </c>
       <c r="D36" t="n">
-        <v>71.7225810383419</v>
+        <v>71.72258103834193</v>
       </c>
       <c r="E36" t="n">
-        <v>78.01652931382858</v>
+        <v>78.01652931382861</v>
       </c>
       <c r="F36" t="n">
-        <v>66.12199138930694</v>
+        <v>66.121991389307</v>
       </c>
       <c r="G36" t="n">
-        <v>60.81992250453605</v>
+        <v>60.81992250453609</v>
       </c>
       <c r="H36" t="n">
-        <v>20.94408209273066</v>
+        <v>20.94408209273128</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>58.42795503328625</v>
+        <v>58.42795503328628</v>
       </c>
       <c r="T36" t="n">
-        <v>114.2233773188213</v>
+        <v>114.2233773188214</v>
       </c>
       <c r="U36" t="n">
-        <v>150.8329493942569</v>
+        <v>150.832949394257</v>
       </c>
       <c r="V36" t="n">
         <v>163.2491049462511</v>
       </c>
       <c r="W36" t="n">
-        <v>170.7505767416534</v>
+        <v>170.7505767416535</v>
       </c>
       <c r="X36" t="n">
         <v>130.3485102070959</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>111.4375700882781</v>
       </c>
       <c r="D37" t="n">
-        <v>97.01128530011783</v>
+        <v>97.01128530011786</v>
       </c>
       <c r="E37" t="n">
-        <v>96.93772735299694</v>
+        <v>96.93772735299697</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>98.68717877276424</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.6896150027051</v>
       </c>
       <c r="H37" t="n">
-        <v>89.59971563247981</v>
+        <v>89.59971563247984</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.1465590008203</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.88809398132001</v>
+        <v>28.88809398132004</v>
       </c>
       <c r="S37" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>172.8081028702184</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>225.4743761727191</v>
+        <v>38.77651570418643</v>
       </c>
       <c r="V37" t="n">
-        <v>206.2540550609914</v>
+        <v>206.2540550609915</v>
       </c>
       <c r="W37" t="n">
-        <v>223.4316013817416</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>174.6740223284542</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.3084948521265</v>
+        <v>163.8154439051305</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11.48539462935326</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>332.1782498157061</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>350.1456037623151</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>154.7386393362296</v>
       </c>
       <c r="I38" t="n">
-        <v>9.721637792327257</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>66.30904554381358</v>
       </c>
       <c r="T38" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>195.9841034011013</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>310.2235480150029</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y38" t="n">
-        <v>335.4603053222123</v>
+        <v>335.4603053222124</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.21287443015916</v>
+        <v>93.21287443015919</v>
       </c>
       <c r="C39" t="n">
-        <v>92.08219146911614</v>
+        <v>92.08219146911617</v>
       </c>
       <c r="D39" t="n">
-        <v>71.7225810383419</v>
+        <v>71.72258103834193</v>
       </c>
       <c r="E39" t="n">
-        <v>78.01652931382858</v>
+        <v>78.01652931382861</v>
       </c>
       <c r="F39" t="n">
-        <v>66.12199138930694</v>
+        <v>66.121991389307</v>
       </c>
       <c r="G39" t="n">
-        <v>60.81992250453604</v>
+        <v>60.81992250453609</v>
       </c>
       <c r="H39" t="n">
-        <v>20.94408209273123</v>
+        <v>20.94408209273127</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.42795503328625</v>
+        <v>58.42795503328629</v>
       </c>
       <c r="T39" t="n">
-        <v>114.2233773188212</v>
+        <v>114.2233773188214</v>
       </c>
       <c r="U39" t="n">
-        <v>150.832949394257</v>
+        <v>150.8329493942572</v>
       </c>
       <c r="V39" t="n">
         <v>163.2491049462511</v>
       </c>
       <c r="W39" t="n">
-        <v>170.7505767416534</v>
+        <v>170.7505767416535</v>
       </c>
       <c r="X39" t="n">
         <v>130.3485102070959</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C40" t="n">
-        <v>87.21674345757835</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.01128530011783</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>96.93772735299694</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.68717877276421</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H40" t="n">
-        <v>89.59971563247981</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50.14655900082028</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.88809398132001</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>172.8081028702184</v>
@@ -3720,16 +3720,16 @@
         <v>225.4743761727191</v>
       </c>
       <c r="V40" t="n">
-        <v>206.2540550609914</v>
+        <v>206.2540550609915</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>213.2021667900263</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>174.6740223284542</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>163.8154439051305</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>332.1782498157061</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>324.5212208291064</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>109.4653625982465</v>
       </c>
       <c r="G41" t="n">
-        <v>85.14298160747185</v>
+        <v>350.1456037623152</v>
       </c>
       <c r="H41" t="n">
         <v>245.1373663399197</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.30904554381355</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>156.2329292452246</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.21287443015916</v>
+        <v>93.21287443015919</v>
       </c>
       <c r="C42" t="n">
-        <v>92.08219146911614</v>
+        <v>92.08219146911617</v>
       </c>
       <c r="D42" t="n">
-        <v>71.7225810383419</v>
+        <v>71.72258103834193</v>
       </c>
       <c r="E42" t="n">
-        <v>78.01652931382858</v>
+        <v>78.01652931382861</v>
       </c>
       <c r="F42" t="n">
-        <v>66.12199138930694</v>
+        <v>66.121991389307</v>
       </c>
       <c r="G42" t="n">
-        <v>60.81992250453605</v>
+        <v>60.81992250453609</v>
       </c>
       <c r="H42" t="n">
-        <v>20.94408209273124</v>
+        <v>20.94408209273166</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.42795503328625</v>
+        <v>58.42795503328628</v>
       </c>
       <c r="T42" t="n">
-        <v>114.2233773188213</v>
+        <v>114.2233773188214</v>
       </c>
       <c r="U42" t="n">
         <v>150.832949394257</v>
@@ -3881,7 +3881,7 @@
         <v>163.2491049462511</v>
       </c>
       <c r="W42" t="n">
-        <v>170.7505767416534</v>
+        <v>170.7505767416535</v>
       </c>
       <c r="X42" t="n">
         <v>130.3485102070959</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.4375700882781</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.01128530011783</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>89.31522732328852</v>
+        <v>50.43565671043455</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>98.68717877276424</v>
       </c>
       <c r="G43" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H43" t="n">
-        <v>89.59971563247981</v>
+        <v>89.59971563247984</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>50.1465590008203</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.88809398132001</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8081028702184</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>225.4743761727191</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>206.2540550609915</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>223.4316013817416</v>
       </c>
       <c r="X43" t="n">
         <v>174.6740223284542</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>339.4243015878903</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>324.5212208291064</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>355.6599974189294</v>
+        <v>355.6599974189295</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>273.173831937856</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.2329292452247</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>32.1710372893266</v>
+        <v>281.6202445371243</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.21287443015916</v>
+        <v>93.21287443015922</v>
       </c>
       <c r="C45" t="n">
-        <v>92.08219146911614</v>
+        <v>92.0821914691162</v>
       </c>
       <c r="D45" t="n">
-        <v>71.7225810383419</v>
+        <v>71.72258103834196</v>
       </c>
       <c r="E45" t="n">
-        <v>78.01652931382858</v>
+        <v>78.01652931382864</v>
       </c>
       <c r="F45" t="n">
-        <v>66.12199138930694</v>
+        <v>66.12199138930701</v>
       </c>
       <c r="G45" t="n">
-        <v>60.81992250453605</v>
+        <v>60.81992250453612</v>
       </c>
       <c r="H45" t="n">
-        <v>20.94408209273124</v>
+        <v>20.9440820927313</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.42795503328625</v>
+        <v>58.42795503328631</v>
       </c>
       <c r="T45" t="n">
-        <v>114.223377318821</v>
+        <v>114.2233773188214</v>
       </c>
       <c r="U45" t="n">
-        <v>150.8329493942569</v>
+        <v>150.832949394257</v>
       </c>
       <c r="V45" t="n">
         <v>163.2491049462511</v>
       </c>
       <c r="W45" t="n">
-        <v>170.7505767416534</v>
+        <v>170.7505767416535</v>
       </c>
       <c r="X45" t="n">
-        <v>130.3485102070959</v>
+        <v>130.348510207096</v>
       </c>
       <c r="Y45" t="n">
         <v>120.4555780888553</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>111.4375700882782</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.6896150027051</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>89.59971563247987</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.14655900082033</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>98.46018041098881</v>
+        <v>28.69260642983255</v>
       </c>
       <c r="T46" t="n">
         <v>172.8081028702184</v>
@@ -4194,7 +4194,7 @@
         <v>225.4743761727191</v>
       </c>
       <c r="V46" t="n">
-        <v>206.2540550609914</v>
+        <v>206.2540550609915</v>
       </c>
       <c r="W46" t="n">
         <v>223.4316013817416</v>
@@ -4203,7 +4203,7 @@
         <v>174.6740223284542</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.8154439051305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1293.656251160234</v>
+        <v>352.5539965283143</v>
       </c>
       <c r="C11" t="n">
-        <v>1243.709404738122</v>
+        <v>352.5539965283143</v>
       </c>
       <c r="D11" t="n">
-        <v>1243.709404738122</v>
+        <v>352.5539965283143</v>
       </c>
       <c r="E11" t="n">
-        <v>917.028533233012</v>
+        <v>352.5539965283143</v>
       </c>
       <c r="F11" t="n">
-        <v>590.3476617279025</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="G11" t="n">
-        <v>263.666790222793</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="H11" t="n">
         <v>25.87312502320468</v>
@@ -5041,25 +5041,25 @@
         <v>25.87312502320468</v>
       </c>
       <c r="J11" t="n">
-        <v>62.29792126503642</v>
+        <v>323.4507337367871</v>
       </c>
       <c r="K11" t="n">
-        <v>149.8692855370707</v>
+        <v>411.0220980088214</v>
       </c>
       <c r="L11" t="n">
-        <v>317.5892321576871</v>
+        <v>543.6482641856675</v>
       </c>
       <c r="M11" t="n">
-        <v>637.7691543198449</v>
+        <v>711.8055627224871</v>
       </c>
       <c r="N11" t="n">
-        <v>811.6463891962748</v>
+        <v>885.682797598917</v>
       </c>
       <c r="O11" t="n">
-        <v>1131.826311358433</v>
+        <v>1041.202220103998</v>
       </c>
       <c r="P11" t="n">
-        <v>1242.132889839195</v>
+        <v>1151.50879858476</v>
       </c>
       <c r="Q11" t="n">
         <v>1293.656251160234</v>
@@ -5068,25 +5068,25 @@
         <v>1293.656251160234</v>
       </c>
       <c r="S11" t="n">
-        <v>1293.656251160234</v>
+        <v>1236.49725343146</v>
       </c>
       <c r="T11" t="n">
-        <v>1293.656251160234</v>
+        <v>1088.506049943685</v>
       </c>
       <c r="U11" t="n">
-        <v>1293.656251160234</v>
+        <v>1088.506049943685</v>
       </c>
       <c r="V11" t="n">
-        <v>1293.656251160234</v>
+        <v>813.8609926257077</v>
       </c>
       <c r="W11" t="n">
-        <v>1293.656251160234</v>
+        <v>674.5448496167526</v>
       </c>
       <c r="X11" t="n">
-        <v>1293.656251160234</v>
+        <v>352.5539965283143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1293.656251160234</v>
+        <v>352.5539965283143</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>360.5978432594645</v>
+        <v>360.5978432594646</v>
       </c>
       <c r="C12" t="n">
-        <v>277.4053647980616</v>
+        <v>277.4053647980617</v>
       </c>
       <c r="D12" t="n">
-        <v>214.7781493980468</v>
+        <v>214.7781493980469</v>
       </c>
       <c r="E12" t="n">
-        <v>145.7934104874394</v>
+        <v>145.7934104874395</v>
       </c>
       <c r="F12" t="n">
-        <v>88.82335634907605</v>
+        <v>88.82335634907614</v>
       </c>
       <c r="G12" t="n">
-        <v>37.20892734684507</v>
+        <v>37.20892734684506</v>
       </c>
       <c r="H12" t="n">
         <v>25.87312502320468</v>
@@ -5126,19 +5126,19 @@
         <v>297.0448762862446</v>
       </c>
       <c r="L12" t="n">
-        <v>483.8520988033371</v>
+        <v>417.2093330474738</v>
       </c>
       <c r="M12" t="n">
-        <v>636.6603163644008</v>
+        <v>570.0175506085375</v>
       </c>
       <c r="N12" t="n">
-        <v>802.8785319444993</v>
+        <v>736.235766188636</v>
       </c>
       <c r="O12" t="n">
-        <v>940.4928589568752</v>
+        <v>873.850093201012</v>
       </c>
       <c r="P12" t="n">
-        <v>1260.672781119033</v>
+        <v>973.4763289980759</v>
       </c>
       <c r="Q12" t="n">
         <v>1293.656251160234</v>
@@ -5153,19 +5153,19 @@
         <v>1138.900638263817</v>
       </c>
       <c r="U12" t="n">
-        <v>996.3639598780287</v>
+        <v>996.3639598780288</v>
       </c>
       <c r="V12" t="n">
-        <v>841.2857102276006</v>
+        <v>841.2857102276008</v>
       </c>
       <c r="W12" t="n">
-        <v>678.6302163393923</v>
+        <v>678.6302163393925</v>
       </c>
       <c r="X12" t="n">
-        <v>556.7848906679088</v>
+        <v>556.7848906679089</v>
       </c>
       <c r="Y12" t="n">
-        <v>444.9324257219209</v>
+        <v>444.932425721921</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.667621739972</v>
+        <v>329.9855755516597</v>
       </c>
       <c r="C13" t="n">
-        <v>244.667621739972</v>
+        <v>329.9855755516597</v>
       </c>
       <c r="D13" t="n">
-        <v>244.667621739972</v>
+        <v>241.8142144326794</v>
       </c>
       <c r="E13" t="n">
-        <v>156.5705615776794</v>
+        <v>196.4222349429921</v>
       </c>
       <c r="F13" t="n">
-        <v>66.70637876915723</v>
+        <v>106.5580521344699</v>
       </c>
       <c r="G13" t="n">
-        <v>66.70637876915723</v>
+        <v>106.5580521344699</v>
       </c>
       <c r="H13" t="n">
-        <v>66.70637876915723</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I13" t="n">
         <v>25.87312502320468</v>
@@ -5202,13 +5202,13 @@
         <v>25.87312502320468</v>
       </c>
       <c r="K13" t="n">
-        <v>201.6106887988917</v>
+        <v>103.4369716525841</v>
       </c>
       <c r="L13" t="n">
-        <v>485.9012281778242</v>
+        <v>387.7275110315167</v>
       </c>
       <c r="M13" t="n">
-        <v>798.8877359625237</v>
+        <v>700.7140188162161</v>
       </c>
       <c r="N13" t="n">
         <v>1007.586060048716</v>
@@ -5223,28 +5223,28 @@
         <v>1293.656251160234</v>
       </c>
       <c r="R13" t="n">
-        <v>1274.296194403675</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S13" t="n">
-        <v>1153.313231200442</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="T13" t="n">
-        <v>988.5794280914611</v>
+        <v>1128.922448051253</v>
       </c>
       <c r="U13" t="n">
-        <v>900.5514179864497</v>
+        <v>910.9903890811601</v>
       </c>
       <c r="V13" t="n">
-        <v>900.5514179864497</v>
+        <v>712.4727958804892</v>
       </c>
       <c r="W13" t="n">
-        <v>684.6827678961322</v>
+        <v>496.6041457901717</v>
       </c>
       <c r="X13" t="n">
-        <v>518.0641976576202</v>
+        <v>329.9855755516597</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.4138884527684</v>
+        <v>329.9855755516597</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1019.011193842257</v>
+        <v>581.6461670276203</v>
       </c>
       <c r="C14" t="n">
-        <v>917.028533233012</v>
+        <v>581.6461670276203</v>
       </c>
       <c r="D14" t="n">
-        <v>917.028533233012</v>
+        <v>263.666790222793</v>
       </c>
       <c r="E14" t="n">
-        <v>590.3476617279025</v>
+        <v>263.666790222793</v>
       </c>
       <c r="F14" t="n">
-        <v>590.3476617279025</v>
+        <v>263.666790222793</v>
       </c>
       <c r="G14" t="n">
         <v>263.666790222793</v>
@@ -5290,16 +5290,16 @@
         <v>450.6527502507364</v>
       </c>
       <c r="N14" t="n">
-        <v>631.7031515696023</v>
+        <v>624.5299851271662</v>
       </c>
       <c r="O14" t="n">
-        <v>787.2225740746835</v>
+        <v>921.952967677037</v>
       </c>
       <c r="P14" t="n">
-        <v>897.5291525554459</v>
+        <v>1242.132889839195</v>
       </c>
       <c r="Q14" t="n">
-        <v>1217.709074717604</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R14" t="n">
         <v>1293.656251160234</v>
@@ -5308,22 +5308,22 @@
         <v>1293.656251160234</v>
       </c>
       <c r="T14" t="n">
-        <v>1293.656251160234</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="U14" t="n">
-        <v>1293.656251160234</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="V14" t="n">
-        <v>1019.011193842257</v>
+        <v>1145.665047672459</v>
       </c>
       <c r="W14" t="n">
-        <v>1019.011193842257</v>
+        <v>903.6370201160587</v>
       </c>
       <c r="X14" t="n">
-        <v>1019.011193842257</v>
+        <v>581.6461670276203</v>
       </c>
       <c r="Y14" t="n">
-        <v>1019.011193842257</v>
+        <v>581.6461670276203</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>277.4053647980618</v>
       </c>
       <c r="D15" t="n">
-        <v>214.778149398047</v>
+        <v>214.7781493980469</v>
       </c>
       <c r="E15" t="n">
-        <v>145.7934104874396</v>
+        <v>145.7934104874395</v>
       </c>
       <c r="F15" t="n">
-        <v>88.82335634907619</v>
+        <v>88.82335634907616</v>
       </c>
       <c r="G15" t="n">
         <v>37.20892734684507</v>
@@ -5363,19 +5363,19 @@
         <v>102.3098813065172</v>
       </c>
       <c r="L15" t="n">
-        <v>384.8174731196616</v>
+        <v>222.4743380677464</v>
       </c>
       <c r="M15" t="n">
-        <v>704.9973952818194</v>
+        <v>375.2825556288101</v>
       </c>
       <c r="N15" t="n">
-        <v>1025.177317443977</v>
+        <v>541.5007712089086</v>
       </c>
       <c r="O15" t="n">
-        <v>1162.791644456353</v>
+        <v>679.1150982212846</v>
       </c>
       <c r="P15" t="n">
-        <v>1260.672781119033</v>
+        <v>999.2950203834424</v>
       </c>
       <c r="Q15" t="n">
         <v>1293.656251160234</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.6108166255283</v>
+        <v>194.6551122967625</v>
       </c>
       <c r="C16" t="n">
-        <v>200.6108166255283</v>
+        <v>194.6551122967625</v>
       </c>
       <c r="D16" t="n">
-        <v>200.6108166255283</v>
+        <v>194.6551122967625</v>
       </c>
       <c r="E16" t="n">
-        <v>200.6108166255283</v>
+        <v>106.5580521344699</v>
       </c>
       <c r="F16" t="n">
-        <v>125.8407787710611</v>
+        <v>106.5580521344699</v>
       </c>
       <c r="G16" t="n">
-        <v>25.87312502320468</v>
+        <v>106.5580521344699</v>
       </c>
       <c r="H16" t="n">
         <v>25.87312502320468</v>
@@ -5436,25 +5436,25 @@
         <v>25.87312502320468</v>
       </c>
       <c r="J16" t="n">
-        <v>25.87312502320468</v>
+        <v>53.241786085509</v>
       </c>
       <c r="K16" t="n">
-        <v>36.75561605621033</v>
+        <v>64.12427711851466</v>
       </c>
       <c r="L16" t="n">
-        <v>321.0461554351429</v>
+        <v>348.4148164974472</v>
       </c>
       <c r="M16" t="n">
-        <v>634.0326632198423</v>
+        <v>661.4013242821467</v>
       </c>
       <c r="N16" t="n">
-        <v>940.9047044523418</v>
+        <v>968.2733655146462</v>
       </c>
       <c r="O16" t="n">
-        <v>1217.850193122141</v>
+        <v>1245.218854184445</v>
       </c>
       <c r="P16" t="n">
-        <v>1293.656251160234</v>
+        <v>1254.343556626164</v>
       </c>
       <c r="Q16" t="n">
         <v>1293.656251160234</v>
@@ -5463,25 +5463,25 @@
         <v>1274.296194403675</v>
       </c>
       <c r="S16" t="n">
-        <v>1153.313231200442</v>
+        <v>1158.325787905337</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5794280914611</v>
+        <v>993.5919847963556</v>
       </c>
       <c r="U16" t="n">
-        <v>770.6473691213683</v>
+        <v>775.6599258262629</v>
       </c>
       <c r="V16" t="n">
-        <v>572.1297759206975</v>
+        <v>577.1423326255921</v>
       </c>
       <c r="W16" t="n">
-        <v>356.26112583038</v>
+        <v>361.2736825352745</v>
       </c>
       <c r="X16" t="n">
-        <v>356.26112583038</v>
+        <v>194.6551122967625</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.6108166255283</v>
+        <v>194.6551122967625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>399.6816241825845</v>
+        <v>909.8163819263502</v>
       </c>
       <c r="C17" t="n">
-        <v>73.96787466401997</v>
+        <v>584.1026324077857</v>
       </c>
       <c r="D17" t="n">
-        <v>73.96787466401997</v>
+        <v>584.1026324077857</v>
       </c>
       <c r="E17" t="n">
-        <v>73.96787466401997</v>
+        <v>257.4217609026761</v>
       </c>
       <c r="F17" t="n">
-        <v>25.87312502320468</v>
+        <v>257.4217609026761</v>
       </c>
       <c r="G17" t="n">
         <v>25.87312502320468</v>
@@ -5515,28 +5515,28 @@
         <v>25.87312502320468</v>
       </c>
       <c r="J17" t="n">
-        <v>105.5190906584678</v>
+        <v>62.29792126503642</v>
       </c>
       <c r="K17" t="n">
-        <v>425.6990128206256</v>
+        <v>149.8692855370707</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3251789974718</v>
+        <v>282.4954517139167</v>
       </c>
       <c r="M17" t="n">
-        <v>726.4824775342914</v>
+        <v>450.6527502507364</v>
       </c>
       <c r="N17" t="n">
-        <v>900.3597124107213</v>
+        <v>624.5299851271662</v>
       </c>
       <c r="O17" t="n">
-        <v>1055.879134915803</v>
+        <v>944.7099072893241</v>
       </c>
       <c r="P17" t="n">
-        <v>1166.185713396565</v>
+        <v>1242.132889839195</v>
       </c>
       <c r="Q17" t="n">
-        <v>1217.709074717604</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R17" t="n">
         <v>1293.656251160234</v>
@@ -5548,19 +5548,19 @@
         <v>1236.49725343146</v>
       </c>
       <c r="U17" t="n">
-        <v>1048.353348776132</v>
+        <v>1236.49725343146</v>
       </c>
       <c r="V17" t="n">
-        <v>1048.353348776132</v>
+        <v>1236.49725343146</v>
       </c>
       <c r="W17" t="n">
-        <v>1048.353348776132</v>
+        <v>1236.49725343146</v>
       </c>
       <c r="X17" t="n">
-        <v>726.362495687694</v>
+        <v>1236.49725343146</v>
       </c>
       <c r="Y17" t="n">
-        <v>726.362495687694</v>
+        <v>909.8163819263502</v>
       </c>
     </row>
     <row r="18">
@@ -5579,16 +5579,16 @@
         <v>214.778149398047</v>
       </c>
       <c r="E18" t="n">
-        <v>145.7934104874395</v>
+        <v>145.7934104874396</v>
       </c>
       <c r="F18" t="n">
-        <v>88.82335634907619</v>
+        <v>88.82335634907625</v>
       </c>
       <c r="G18" t="n">
-        <v>37.20892734684507</v>
+        <v>37.20892734684513</v>
       </c>
       <c r="H18" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320474</v>
       </c>
       <c r="I18" t="n">
         <v>25.87312502320468</v>
@@ -5597,25 +5597,25 @@
         <v>230.0708785876864</v>
       </c>
       <c r="K18" t="n">
-        <v>297.0448762862446</v>
+        <v>549.5710751204271</v>
       </c>
       <c r="L18" t="n">
-        <v>417.2093330474738</v>
+        <v>669.7355318816562</v>
       </c>
       <c r="M18" t="n">
-        <v>737.3892552096316</v>
+        <v>822.5437494427199</v>
       </c>
       <c r="N18" t="n">
-        <v>903.6074707897301</v>
+        <v>988.7619650228185</v>
       </c>
       <c r="O18" t="n">
-        <v>1041.221797802106</v>
+        <v>1126.376292035194</v>
       </c>
       <c r="P18" t="n">
-        <v>1260.672781119033</v>
+        <v>1224.257428697874</v>
       </c>
       <c r="Q18" t="n">
-        <v>1293.656251160234</v>
+        <v>1257.240898739075</v>
       </c>
       <c r="R18" t="n">
         <v>1293.656251160234</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.4497447246632</v>
+        <v>125.8407787710611</v>
       </c>
       <c r="C19" t="n">
-        <v>66.70637876915723</v>
+        <v>125.8407787710611</v>
       </c>
       <c r="D19" t="n">
-        <v>66.70637876915723</v>
+        <v>125.8407787710611</v>
       </c>
       <c r="E19" t="n">
-        <v>66.70637876915723</v>
+        <v>125.8407787710611</v>
       </c>
       <c r="F19" t="n">
-        <v>66.70637876915723</v>
+        <v>125.8407787710611</v>
       </c>
       <c r="G19" t="n">
-        <v>66.70637876915723</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="H19" t="n">
-        <v>66.70637876915723</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I19" t="n">
         <v>25.87312502320468</v>
@@ -5676,49 +5676,49 @@
         <v>25.87312502320468</v>
       </c>
       <c r="K19" t="n">
-        <v>36.75561605621033</v>
+        <v>103.4369716525841</v>
       </c>
       <c r="L19" t="n">
-        <v>321.0461554351429</v>
+        <v>387.7275110315167</v>
       </c>
       <c r="M19" t="n">
-        <v>634.0326632198423</v>
+        <v>700.7140188162161</v>
       </c>
       <c r="N19" t="n">
-        <v>940.9047044523418</v>
+        <v>1007.586060048716</v>
       </c>
       <c r="O19" t="n">
-        <v>1004.926332063741</v>
+        <v>1284.531548718515</v>
       </c>
       <c r="P19" t="n">
-        <v>1222.555170887665</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="Q19" t="n">
         <v>1293.656251160234</v>
       </c>
       <c r="R19" t="n">
-        <v>1293.656251160234</v>
+        <v>1274.296194403675</v>
       </c>
       <c r="S19" t="n">
-        <v>1172.673287957</v>
+        <v>1245.161763584487</v>
       </c>
       <c r="T19" t="n">
-        <v>1007.939484848019</v>
+        <v>1080.427960475506</v>
       </c>
       <c r="U19" t="n">
-        <v>790.0074258779267</v>
+        <v>862.4959015054133</v>
       </c>
       <c r="V19" t="n">
-        <v>591.4898326772559</v>
+        <v>663.9783083047423</v>
       </c>
       <c r="W19" t="n">
-        <v>375.6211825869384</v>
+        <v>448.1096582144248</v>
       </c>
       <c r="X19" t="n">
-        <v>375.6211825869384</v>
+        <v>281.4910879759128</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.9708733820866</v>
+        <v>125.8407787710611</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>744.8160657229248</v>
+        <v>1048.353348776132</v>
       </c>
       <c r="C20" t="n">
+        <v>1048.353348776132</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1048.353348776132</v>
+      </c>
+      <c r="E20" t="n">
+        <v>917.028533233012</v>
+      </c>
+      <c r="F20" t="n">
         <v>590.3476617279025</v>
-      </c>
-      <c r="D20" t="n">
-        <v>590.3476617279025</v>
-      </c>
-      <c r="E20" t="n">
-        <v>263.666790222793</v>
-      </c>
-      <c r="F20" t="n">
-        <v>263.666790222793</v>
       </c>
       <c r="G20" t="n">
         <v>263.666790222793</v>
@@ -5761,19 +5761,19 @@
         <v>282.4954517139167</v>
       </c>
       <c r="M20" t="n">
-        <v>580.1797902485634</v>
+        <v>450.6527502507364</v>
       </c>
       <c r="N20" t="n">
-        <v>900.3597124107213</v>
+        <v>770.8326724128942</v>
       </c>
       <c r="O20" t="n">
-        <v>1055.879134915803</v>
+        <v>926.3520949179755</v>
       </c>
       <c r="P20" t="n">
-        <v>1166.185713396565</v>
+        <v>1036.658673398738</v>
       </c>
       <c r="Q20" t="n">
-        <v>1217.709074717604</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R20" t="n">
         <v>1293.656251160234</v>
@@ -5791,13 +5791,13 @@
         <v>1048.353348776132</v>
       </c>
       <c r="W20" t="n">
-        <v>744.8160657229248</v>
+        <v>1048.353348776132</v>
       </c>
       <c r="X20" t="n">
-        <v>744.8160657229248</v>
+        <v>1048.353348776132</v>
       </c>
       <c r="Y20" t="n">
-        <v>744.8160657229248</v>
+        <v>1048.353348776132</v>
       </c>
     </row>
     <row r="21">
@@ -5816,16 +5816,16 @@
         <v>214.778149398047</v>
       </c>
       <c r="E21" t="n">
-        <v>145.7934104874395</v>
+        <v>145.7934104874396</v>
       </c>
       <c r="F21" t="n">
-        <v>88.82335634907619</v>
+        <v>88.82335634907625</v>
       </c>
       <c r="G21" t="n">
-        <v>37.20892734684507</v>
+        <v>37.20892734684513</v>
       </c>
       <c r="H21" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320474</v>
       </c>
       <c r="I21" t="n">
         <v>25.87312502320468</v>
@@ -5843,13 +5843,13 @@
         <v>375.2825556288101</v>
       </c>
       <c r="N21" t="n">
-        <v>695.462477790968</v>
+        <v>541.5007712089086</v>
       </c>
       <c r="O21" t="n">
-        <v>940.4928589568752</v>
+        <v>679.1150982212846</v>
       </c>
       <c r="P21" t="n">
-        <v>1260.672781119033</v>
+        <v>999.2950203834424</v>
       </c>
       <c r="Q21" t="n">
         <v>1293.656251160234</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>344.6352754878284</v>
+        <v>436.0181652226482</v>
       </c>
       <c r="C22" t="n">
-        <v>344.6352754878284</v>
+        <v>333.2747992671423</v>
       </c>
       <c r="D22" t="n">
-        <v>344.6352754878284</v>
+        <v>245.103438148162</v>
       </c>
       <c r="E22" t="n">
-        <v>256.5382153255358</v>
+        <v>157.0063779858693</v>
       </c>
       <c r="F22" t="n">
-        <v>166.6740325170136</v>
+        <v>67.14219517734715</v>
       </c>
       <c r="G22" t="n">
-        <v>66.70637876915723</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="H22" t="n">
-        <v>66.70637876915723</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I22" t="n">
         <v>25.87312502320468</v>
@@ -5916,13 +5916,13 @@
         <v>36.75561605621033</v>
       </c>
       <c r="L22" t="n">
-        <v>321.0461554351429</v>
+        <v>179.2233746493117</v>
       </c>
       <c r="M22" t="n">
-        <v>634.0326632198423</v>
+        <v>492.2098824340111</v>
       </c>
       <c r="N22" t="n">
-        <v>940.9047044523418</v>
+        <v>799.0819236665106</v>
       </c>
       <c r="O22" t="n">
         <v>1076.02741233631</v>
@@ -5934,28 +5934,28 @@
         <v>1293.656251160234</v>
       </c>
       <c r="R22" t="n">
-        <v>1274.296194403675</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S22" t="n">
-        <v>1274.296194403675</v>
+        <v>1172.673287957</v>
       </c>
       <c r="T22" t="n">
-        <v>1109.562391294694</v>
+        <v>1172.673287957</v>
       </c>
       <c r="U22" t="n">
-        <v>891.6303323246017</v>
+        <v>1172.673287957</v>
       </c>
       <c r="V22" t="n">
-        <v>727.122495816658</v>
+        <v>974.1556947563295</v>
       </c>
       <c r="W22" t="n">
-        <v>511.2538457263404</v>
+        <v>758.287044666012</v>
       </c>
       <c r="X22" t="n">
-        <v>344.6352754878284</v>
+        <v>591.6684744275</v>
       </c>
       <c r="Y22" t="n">
-        <v>344.6352754878284</v>
+        <v>436.0181652226482</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1637.389128458459</v>
+        <v>1024.279561683304</v>
       </c>
       <c r="C23" t="n">
-        <v>1311.675378939894</v>
+        <v>698.5658121647393</v>
       </c>
       <c r="D23" t="n">
-        <v>1311.675378939894</v>
+        <v>380.5864353599119</v>
       </c>
       <c r="E23" t="n">
-        <v>976.5536060349436</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="F23" t="n">
-        <v>627.1209195434262</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="G23" t="n">
-        <v>283.2583276545496</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="H23" t="n">
         <v>45.4646624549613</v>
@@ -5992,22 +5992,22 @@
         <v>81.88945869679304</v>
       </c>
       <c r="K23" t="n">
-        <v>192.0609903581144</v>
+        <v>169.4608229688273</v>
       </c>
       <c r="L23" t="n">
-        <v>754.6861882382605</v>
+        <v>732.0860208489734</v>
       </c>
       <c r="M23" t="n">
-        <v>1317.311386118407</v>
+        <v>1294.71121872912</v>
       </c>
       <c r="N23" t="n">
-        <v>1879.936583998553</v>
+        <v>1857.336416609266</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.456006503634</v>
+        <v>2012.855839114347</v>
       </c>
       <c r="P23" t="n">
-        <v>2145.762584984396</v>
+        <v>2123.162417595109</v>
       </c>
       <c r="Q23" t="n">
         <v>2197.285946305435</v>
@@ -6016,25 +6016,25 @@
         <v>2273.233122748065</v>
       </c>
       <c r="S23" t="n">
-        <v>2216.074125019291</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="T23" t="n">
-        <v>2216.074125019291</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="U23" t="n">
-        <v>2216.074125019291</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="V23" t="n">
-        <v>1941.429067701314</v>
+        <v>1998.588065430088</v>
       </c>
       <c r="W23" t="n">
-        <v>1941.429067701314</v>
+        <v>1695.050782376881</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.429067701314</v>
+        <v>1686.34151251709</v>
       </c>
       <c r="Y23" t="n">
-        <v>1637.389128458459</v>
+        <v>1357.312555416196</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>121.9014187382739</v>
       </c>
       <c r="L24" t="n">
-        <v>242.0658754995031</v>
+        <v>454.492922403746</v>
       </c>
       <c r="M24" t="n">
-        <v>692.6747571046469</v>
+        <v>1017.118120283892</v>
       </c>
       <c r="N24" t="n">
-        <v>1255.299954984793</v>
+        <v>1579.743318164038</v>
       </c>
       <c r="O24" t="n">
-        <v>1817.925152864939</v>
+        <v>2142.368516044184</v>
       </c>
       <c r="P24" t="n">
-        <v>1915.806289527619</v>
+        <v>2240.249652706864</v>
       </c>
       <c r="Q24" t="n">
         <v>2273.233122748065</v>
@@ -6150,16 +6150,16 @@
         <v>138.9525866313982</v>
       </c>
       <c r="K25" t="n">
-        <v>345.0544530865292</v>
+        <v>380.8094135212179</v>
       </c>
       <c r="L25" t="n">
-        <v>695.4642555795945</v>
+        <v>695.4642555795946</v>
       </c>
       <c r="M25" t="n">
-        <v>1008.450763364294</v>
+        <v>1074.570026478427</v>
       </c>
       <c r="N25" t="n">
-        <v>1381.442067710926</v>
+        <v>1447.561330825059</v>
       </c>
       <c r="O25" t="n">
         <v>1724.506819494858</v>
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>373.6892185621323</v>
+        <v>1534.635604372185</v>
       </c>
       <c r="C26" t="n">
-        <v>45.46466245496131</v>
+        <v>1534.635604372185</v>
       </c>
       <c r="D26" t="n">
-        <v>45.46466245496131</v>
+        <v>1149.194475588853</v>
       </c>
       <c r="E26" t="n">
-        <v>45.46466245496131</v>
+        <v>835.0762700815817</v>
       </c>
       <c r="F26" t="n">
-        <v>45.46466245496131</v>
+        <v>418.1818316115595</v>
       </c>
       <c r="G26" t="n">
-        <v>45.46466245496131</v>
+        <v>418.1818316115595</v>
       </c>
       <c r="H26" t="n">
-        <v>45.46466245496131</v>
+        <v>112.9264144334662</v>
       </c>
       <c r="I26" t="n">
         <v>45.46466245496131</v>
       </c>
       <c r="J26" t="n">
-        <v>81.88945869679306</v>
+        <v>138.3799719964003</v>
       </c>
       <c r="K26" t="n">
-        <v>169.4608229688273</v>
+        <v>701.0051698765465</v>
       </c>
       <c r="L26" t="n">
-        <v>423.5275893058258</v>
+        <v>833.6313360533926</v>
       </c>
       <c r="M26" t="n">
-        <v>986.152787185972</v>
+        <v>1001.788634590212</v>
       </c>
       <c r="N26" t="n">
-        <v>1548.777985066118</v>
+        <v>1175.665869466642</v>
       </c>
       <c r="O26" t="n">
-        <v>2111.403182946264</v>
+        <v>1331.185291971723</v>
       </c>
       <c r="P26" t="n">
-        <v>2221.709761427026</v>
+        <v>1893.81048985187</v>
       </c>
       <c r="Q26" t="n">
         <v>2273.233122748065</v>
@@ -6265,13 +6265,13 @@
         <v>1931.126313451584</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.127278419871</v>
+        <v>1931.126313451584</v>
       </c>
       <c r="X26" t="n">
-        <v>1170.674673352928</v>
+        <v>1931.126313451584</v>
       </c>
       <c r="Y26" t="n">
-        <v>774.1839642735292</v>
+        <v>1534.635604372185</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>800.4806990192574</v>
+        <v>800.4806990192569</v>
       </c>
       <c r="C27" t="n">
-        <v>649.8264685793495</v>
+        <v>649.8264685793491</v>
       </c>
       <c r="D27" t="n">
-        <v>519.7375012008297</v>
+        <v>519.7375012008295</v>
       </c>
       <c r="E27" t="n">
-        <v>383.2910103117174</v>
+        <v>383.2910103117172</v>
       </c>
       <c r="F27" t="n">
-        <v>258.8592041948491</v>
+        <v>258.859204194849</v>
       </c>
       <c r="G27" t="n">
-        <v>139.7830232141132</v>
+        <v>139.783023214113</v>
       </c>
       <c r="H27" t="n">
-        <v>60.98546891196793</v>
+        <v>60.98546891196777</v>
       </c>
       <c r="I27" t="n">
         <v>45.46466245496131</v>
       </c>
       <c r="J27" t="n">
-        <v>54.92742103971568</v>
+        <v>249.6624160194431</v>
       </c>
       <c r="K27" t="n">
-        <v>530.3415307805003</v>
+        <v>316.6364137180012</v>
       </c>
       <c r="L27" t="n">
-        <v>650.5059875417295</v>
+        <v>860.1249790727759</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3142051027933</v>
+        <v>1012.93319663384</v>
       </c>
       <c r="N27" t="n">
-        <v>1215.566764635097</v>
+        <v>1179.151412213938</v>
       </c>
       <c r="O27" t="n">
-        <v>1353.181091647473</v>
+        <v>1316.765739226314</v>
       </c>
       <c r="P27" t="n">
-        <v>1915.806289527619</v>
+        <v>1879.39093710646</v>
       </c>
       <c r="Q27" t="n">
-        <v>2273.233122748065</v>
+        <v>2236.817770326906</v>
       </c>
       <c r="R27" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S27" t="n">
-        <v>2156.573070526168</v>
+        <v>2156.573070526167</v>
       </c>
       <c r="T27" t="n">
         <v>1983.554005894638</v>
       </c>
       <c r="U27" t="n">
-        <v>1773.555575530346</v>
+        <v>1773.555575530345</v>
       </c>
       <c r="V27" t="n">
-        <v>1551.015573901413</v>
+        <v>1551.015573901412</v>
       </c>
       <c r="W27" t="n">
-        <v>1320.8983280347</v>
+        <v>1320.898328034699</v>
       </c>
       <c r="X27" t="n">
         <v>1131.591250384711</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.2770334602187</v>
+        <v>952.2770334602183</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>614.7910941970133</v>
+        <v>563.2373472468526</v>
       </c>
       <c r="C28" t="n">
-        <v>614.7910941970133</v>
+        <v>393.0322293128418</v>
       </c>
       <c r="D28" t="n">
-        <v>614.7910941970133</v>
+        <v>393.0322293128418</v>
       </c>
       <c r="E28" t="n">
-        <v>459.2322820562159</v>
+        <v>393.0322293128418</v>
       </c>
       <c r="F28" t="n">
-        <v>301.9063472691888</v>
+        <v>235.7062945258147</v>
       </c>
       <c r="G28" t="n">
-        <v>301.9063472691888</v>
+        <v>68.27688879945345</v>
       </c>
       <c r="H28" t="n">
-        <v>153.7596681794187</v>
+        <v>68.27688879945345</v>
       </c>
       <c r="I28" t="n">
         <v>45.46466245496131</v>
@@ -6408,28 +6408,28 @@
         <v>1718.395383455376</v>
       </c>
       <c r="R28" t="n">
-        <v>1631.573574720313</v>
+        <v>1718.395383455376</v>
       </c>
       <c r="S28" t="n">
-        <v>1631.573574720313</v>
+        <v>1529.950668273638</v>
       </c>
       <c r="T28" t="n">
-        <v>1399.378019632827</v>
+        <v>1297.755113186152</v>
       </c>
       <c r="U28" t="n">
-        <v>1399.378019632827</v>
+        <v>1297.755113186152</v>
       </c>
       <c r="V28" t="n">
-        <v>1399.378019632827</v>
+        <v>1031.775768006976</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.191496288688</v>
+        <v>748.4453659381538</v>
       </c>
       <c r="X28" t="n">
-        <v>1023.111174071671</v>
+        <v>748.4453659381538</v>
       </c>
       <c r="Y28" t="n">
-        <v>799.9991128883146</v>
+        <v>748.4453659381538</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1639.576115446033</v>
+        <v>1163.636569340473</v>
       </c>
       <c r="C29" t="n">
-        <v>1246.400613948963</v>
+        <v>1163.636569340473</v>
       </c>
       <c r="D29" t="n">
-        <v>1246.400613948963</v>
+        <v>1163.636569340473</v>
       </c>
       <c r="E29" t="n">
-        <v>1246.400613948963</v>
+        <v>1163.636569340473</v>
       </c>
       <c r="F29" t="n">
-        <v>829.506175478941</v>
+        <v>746.7421308704503</v>
       </c>
       <c r="G29" t="n">
-        <v>418.1818316115595</v>
+        <v>350.7200796330545</v>
       </c>
       <c r="H29" t="n">
-        <v>112.9264144334662</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="I29" t="n">
-        <v>45.46466245496132</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J29" t="n">
-        <v>343.0422711685438</v>
+        <v>343.0422711685437</v>
       </c>
       <c r="K29" t="n">
-        <v>430.613635440578</v>
+        <v>905.6674690486899</v>
       </c>
       <c r="L29" t="n">
-        <v>563.2398016174241</v>
+        <v>1038.293635225536</v>
       </c>
       <c r="M29" t="n">
-        <v>1001.788634590213</v>
+        <v>1206.450933762356</v>
       </c>
       <c r="N29" t="n">
-        <v>1175.665869466643</v>
+        <v>1380.328168638786</v>
       </c>
       <c r="O29" t="n">
-        <v>1331.185291971724</v>
+        <v>1535.847591143867</v>
       </c>
       <c r="P29" t="n">
         <v>1893.81048985187</v>
       </c>
       <c r="Q29" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="R29" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="S29" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="T29" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="U29" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="V29" t="n">
-        <v>2036.066824525432</v>
+        <v>1931.126313451584</v>
       </c>
       <c r="W29" t="n">
-        <v>2036.066824525432</v>
+        <v>1560.127278419871</v>
       </c>
       <c r="X29" t="n">
-        <v>2036.066824525432</v>
+        <v>1560.127278419871</v>
       </c>
       <c r="Y29" t="n">
-        <v>1639.576115446033</v>
+        <v>1163.636569340473</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>258.859204194849</v>
       </c>
       <c r="G30" t="n">
-        <v>139.7830232141131</v>
+        <v>139.783023214113</v>
       </c>
       <c r="H30" t="n">
-        <v>60.9854689119678</v>
+        <v>60.98546891196777</v>
       </c>
       <c r="I30" t="n">
-        <v>45.46466245496132</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J30" t="n">
-        <v>54.92742103971568</v>
+        <v>249.6624160194431</v>
       </c>
       <c r="K30" t="n">
-        <v>233.3476259252632</v>
+        <v>725.0765257602277</v>
       </c>
       <c r="L30" t="n">
-        <v>795.9728238054095</v>
+        <v>1184.568342252021</v>
       </c>
       <c r="M30" t="n">
-        <v>948.7810413664732</v>
+        <v>1337.376559813085</v>
       </c>
       <c r="N30" t="n">
-        <v>1114.999256946572</v>
+        <v>1503.594775393183</v>
       </c>
       <c r="O30" t="n">
-        <v>1677.624454826718</v>
+        <v>1641.209102405559</v>
       </c>
       <c r="P30" t="n">
-        <v>2240.249652706864</v>
+        <v>2203.834300285705</v>
       </c>
       <c r="Q30" t="n">
-        <v>2273.233122748065</v>
+        <v>2236.817770326906</v>
       </c>
       <c r="R30" t="n">
         <v>2273.233122748065</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.5408709295609</v>
+        <v>228.9712327725393</v>
       </c>
       <c r="C31" t="n">
-        <v>469.3357529955501</v>
+        <v>58.76611483852852</v>
       </c>
       <c r="D31" t="n">
-        <v>469.3357529955501</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="E31" t="n">
-        <v>469.3357529955501</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="F31" t="n">
-        <v>469.3357529955501</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="G31" t="n">
-        <v>301.9063472691888</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="H31" t="n">
-        <v>153.7596681794188</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="I31" t="n">
-        <v>45.46466245496132</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J31" t="n">
-        <v>72.83332351726564</v>
+        <v>72.83332351726563</v>
       </c>
       <c r="K31" t="n">
         <v>248.5708872929526</v>
       </c>
       <c r="L31" t="n">
-        <v>532.8614266718852</v>
+        <v>532.8614266718853</v>
       </c>
       <c r="M31" t="n">
         <v>845.8479344565847</v>
@@ -6645,28 +6645,28 @@
         <v>1718.395383455376</v>
       </c>
       <c r="R31" t="n">
-        <v>1631.573574720313</v>
+        <v>1718.395383455376</v>
       </c>
       <c r="S31" t="n">
-        <v>1443.128859538574</v>
+        <v>1529.950668273638</v>
       </c>
       <c r="T31" t="n">
-        <v>1443.128859538574</v>
+        <v>1297.755113186152</v>
       </c>
       <c r="U31" t="n">
-        <v>1443.128859538574</v>
+        <v>1012.361302237554</v>
       </c>
       <c r="V31" t="n">
-        <v>1177.149514359399</v>
+        <v>746.3819570583786</v>
       </c>
       <c r="W31" t="n">
-        <v>893.8191122905764</v>
+        <v>463.0515549895562</v>
       </c>
       <c r="X31" t="n">
-        <v>659.7387900735595</v>
+        <v>228.9712327725393</v>
       </c>
       <c r="Y31" t="n">
-        <v>639.5408709295609</v>
+        <v>228.9712327725393</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1360.774559709224</v>
+        <v>620.8773767671089</v>
       </c>
       <c r="C32" t="n">
-        <v>1360.774559709224</v>
+        <v>620.8773767671089</v>
       </c>
       <c r="D32" t="n">
-        <v>1360.774559709224</v>
+        <v>293.0781638084156</v>
       </c>
       <c r="E32" t="n">
-        <v>1015.832950650407</v>
+        <v>293.0781638084156</v>
       </c>
       <c r="F32" t="n">
-        <v>656.580428005024</v>
+        <v>293.0781638084156</v>
       </c>
       <c r="G32" t="n">
-        <v>302.8979999622815</v>
+        <v>293.0781638084156</v>
       </c>
       <c r="H32" t="n">
-        <v>55.28449860882725</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="I32" t="n">
-        <v>45.46466245496132</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J32" t="n">
-        <v>206.3280302294477</v>
+        <v>81.88945869679306</v>
       </c>
       <c r="K32" t="n">
-        <v>293.8993945014819</v>
+        <v>644.5146565769393</v>
       </c>
       <c r="L32" t="n">
-        <v>426.525560678328</v>
+        <v>777.1408227537854</v>
       </c>
       <c r="M32" t="n">
-        <v>594.6828592151476</v>
+        <v>945.2981212906051</v>
       </c>
       <c r="N32" t="n">
-        <v>768.5600940915774</v>
+        <v>1119.175356167035</v>
       </c>
       <c r="O32" t="n">
-        <v>1331.185291971724</v>
+        <v>1681.800554047181</v>
       </c>
       <c r="P32" t="n">
-        <v>1893.81048985187</v>
+        <v>2221.709761427026</v>
       </c>
       <c r="Q32" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="R32" t="n">
-        <v>2273.233122748066</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="S32" t="n">
-        <v>2233.401819647479</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="T32" t="n">
-        <v>2233.401819647479</v>
+        <v>2115.422083106424</v>
       </c>
       <c r="U32" t="n">
-        <v>2035.438078838286</v>
+        <v>1917.458342297231</v>
       </c>
       <c r="V32" t="n">
-        <v>2035.438078838286</v>
+        <v>1632.993448825388</v>
       </c>
       <c r="W32" t="n">
-        <v>2035.438078838286</v>
+        <v>1319.636329618315</v>
       </c>
       <c r="X32" t="n">
-        <v>1703.627389595982</v>
+        <v>987.8256403760106</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.627389595982</v>
+        <v>648.9768471212506</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>258.859204194849</v>
       </c>
       <c r="G33" t="n">
-        <v>139.7830232141131</v>
+        <v>139.783023214113</v>
       </c>
       <c r="H33" t="n">
-        <v>60.9854689119678</v>
+        <v>60.98546891196777</v>
       </c>
       <c r="I33" t="n">
-        <v>45.46466245496132</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J33" t="n">
         <v>54.92742103971568</v>
       </c>
       <c r="K33" t="n">
-        <v>121.9014187382738</v>
+        <v>530.3415307805003</v>
       </c>
       <c r="L33" t="n">
-        <v>684.5266166184201</v>
+        <v>650.5059875417295</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.151814498566</v>
+        <v>803.3142051027933</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.777012378713</v>
+        <v>969.5324206828918</v>
       </c>
       <c r="O33" t="n">
-        <v>2105.953163623025</v>
+        <v>1316.765739226314</v>
       </c>
       <c r="P33" t="n">
-        <v>2203.834300285705</v>
+        <v>1879.39093710646</v>
       </c>
       <c r="Q33" t="n">
         <v>2236.817770326906</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.565320182398</v>
+        <v>704.5653201823982</v>
       </c>
       <c r="C34" t="n">
-        <v>592.0021180730262</v>
+        <v>592.0021180730263</v>
       </c>
       <c r="D34" t="n">
-        <v>494.0109208001799</v>
+        <v>494.01092080018</v>
       </c>
       <c r="E34" t="n">
         <v>396.0940244840214</v>
@@ -6849,22 +6849,22 @@
         <v>296.4100055216333</v>
       </c>
       <c r="G34" t="n">
-        <v>186.6225156199109</v>
+        <v>186.622515619911</v>
       </c>
       <c r="H34" t="n">
-        <v>96.11775235477978</v>
+        <v>96.11775235477981</v>
       </c>
       <c r="I34" t="n">
-        <v>45.46466245496132</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J34" t="n">
-        <v>129.3281652169943</v>
+        <v>129.3281652169942</v>
       </c>
       <c r="K34" t="n">
-        <v>361.56057069241</v>
+        <v>361.5605706924098</v>
       </c>
       <c r="L34" t="n">
-        <v>702.3459517710711</v>
+        <v>702.345951771071</v>
       </c>
       <c r="M34" t="n">
         <v>1071.827301255499</v>
@@ -6879,13 +6879,13 @@
         <v>2042.758195080908</v>
       </c>
       <c r="Q34" t="n">
-        <v>2170.354117053206</v>
+        <v>2170.354117053205</v>
       </c>
       <c r="R34" t="n">
         <v>2141.174224142781</v>
       </c>
       <c r="S34" t="n">
-        <v>2010.371424785682</v>
+        <v>2010.371424785681</v>
       </c>
       <c r="T34" t="n">
         <v>1835.817785522835</v>
@@ -6900,10 +6900,10 @@
         <v>1174.039974800156</v>
       </c>
       <c r="X34" t="n">
-        <v>997.6015684077778</v>
+        <v>997.6015684077777</v>
       </c>
       <c r="Y34" t="n">
-        <v>832.1314230490602</v>
+        <v>832.1314230490606</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>788.7718163375114</v>
+        <v>1095.09083153213</v>
       </c>
       <c r="C35" t="n">
-        <v>741.6137431838637</v>
+        <v>759.5572458596998</v>
       </c>
       <c r="D35" t="n">
-        <v>741.6137431838637</v>
+        <v>431.7580329010065</v>
       </c>
       <c r="E35" t="n">
-        <v>741.6137431838637</v>
+        <v>431.7580329010065</v>
       </c>
       <c r="F35" t="n">
-        <v>382.3612205384804</v>
+        <v>431.7580329010065</v>
       </c>
       <c r="G35" t="n">
-        <v>28.67879249573778</v>
+        <v>286.112130003058</v>
       </c>
       <c r="H35" t="n">
-        <v>28.67879249573778</v>
+        <v>38.49862864960376</v>
       </c>
       <c r="I35" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J35" t="n">
-        <v>65.10358873756954</v>
+        <v>250.9815028041615</v>
       </c>
       <c r="K35" t="n">
-        <v>152.6749530096038</v>
+        <v>338.5528670761958</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3011191864499</v>
+        <v>471.1790332530419</v>
       </c>
       <c r="M35" t="n">
-        <v>640.2011763212049</v>
+        <v>639.3363317898616</v>
       </c>
       <c r="N35" t="n">
-        <v>995.10123345596</v>
+        <v>813.2135666662914</v>
       </c>
       <c r="O35" t="n">
-        <v>1196.162508542458</v>
+        <v>968.7329891713727</v>
       </c>
       <c r="P35" t="n">
-        <v>1306.46908702322</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q35" t="n">
-        <v>1357.992448344259</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R35" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S35" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T35" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="U35" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="V35" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="W35" t="n">
-        <v>1120.582505579816</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="X35" t="n">
-        <v>788.7718163375114</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="Y35" t="n">
-        <v>788.7718163375114</v>
+        <v>1095.09083153213</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>422.3225276551927</v>
+        <v>422.3225276551938</v>
       </c>
       <c r="C36" t="n">
-        <v>329.3102130399238</v>
+        <v>329.310213039925</v>
       </c>
       <c r="D36" t="n">
-        <v>256.8631614860431</v>
+        <v>256.8631614860442</v>
       </c>
       <c r="E36" t="n">
-        <v>178.0585864215698</v>
+        <v>178.0585864215709</v>
       </c>
       <c r="F36" t="n">
-        <v>111.2686961293405</v>
+        <v>111.2686961293416</v>
       </c>
       <c r="G36" t="n">
-        <v>49.8344309732435</v>
+        <v>49.83443097324454</v>
       </c>
       <c r="H36" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573819</v>
       </c>
       <c r="I36" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J36" t="n">
-        <v>38.14155108049216</v>
+        <v>38.14155108049219</v>
       </c>
       <c r="K36" t="n">
-        <v>105.1155487790503</v>
+        <v>105.1155487790504</v>
       </c>
       <c r="L36" t="n">
-        <v>225.2800055402795</v>
+        <v>225.2800055402796</v>
       </c>
       <c r="M36" t="n">
-        <v>378.0882231013433</v>
+        <v>580.1800626750349</v>
       </c>
       <c r="N36" t="n">
-        <v>732.9882802360983</v>
+        <v>911.7596085270957</v>
       </c>
       <c r="O36" t="n">
-        <v>870.6026072484742</v>
+        <v>1266.659665661851</v>
       </c>
       <c r="P36" t="n">
-        <v>1079.039567652134</v>
+        <v>1364.540802324531</v>
       </c>
       <c r="Q36" t="n">
-        <v>1433.939624786889</v>
+        <v>1397.524272365732</v>
       </c>
       <c r="R36" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.92148838963</v>
+        <v>1374.921488389632</v>
       </c>
       <c r="T36" t="n">
-        <v>1259.54433958274</v>
+        <v>1259.544339582741</v>
       </c>
       <c r="U36" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V36" t="n">
-        <v>942.2897392387925</v>
+        <v>942.2897392387937</v>
       </c>
       <c r="W36" t="n">
-        <v>769.8144091967183</v>
+        <v>769.8144091967195</v>
       </c>
       <c r="X36" t="n">
-        <v>638.1492473713689</v>
+        <v>638.1492473713701</v>
       </c>
       <c r="Y36" t="n">
-        <v>516.4769462715151</v>
+        <v>516.4769462715162</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>315.0916493498738</v>
+        <v>687.7794502231746</v>
       </c>
       <c r="C37" t="n">
-        <v>315.0916493498738</v>
+        <v>575.2162481138027</v>
       </c>
       <c r="D37" t="n">
-        <v>217.1004520770275</v>
+        <v>477.2250508409564</v>
       </c>
       <c r="E37" t="n">
-        <v>119.1835557608689</v>
+        <v>379.3081545247979</v>
       </c>
       <c r="F37" t="n">
-        <v>119.1835557608689</v>
+        <v>279.6241355624098</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1835557608689</v>
+        <v>169.8366456606875</v>
       </c>
       <c r="H37" t="n">
-        <v>28.67879249573778</v>
+        <v>79.33188239555631</v>
       </c>
       <c r="I37" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J37" t="n">
-        <v>56.04745355804211</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="K37" t="n">
-        <v>66.92994459104776</v>
+        <v>39.56128352874346</v>
       </c>
       <c r="L37" t="n">
-        <v>351.2204839699804</v>
+        <v>319.5067482759684</v>
       </c>
       <c r="M37" t="n">
-        <v>632.4932560606667</v>
+        <v>632.4932560606678</v>
       </c>
       <c r="N37" t="n">
-        <v>939.3652972931661</v>
+        <v>939.3652972931673</v>
       </c>
       <c r="O37" t="n">
-        <v>1216.310785962965</v>
+        <v>1216.310785962967</v>
       </c>
       <c r="P37" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="Q37" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.759731876465</v>
+        <v>1404.759731876466</v>
       </c>
       <c r="S37" t="n">
-        <v>1273.956932519366</v>
+        <v>1404.759731876466</v>
       </c>
       <c r="T37" t="n">
-        <v>1099.403293256519</v>
+        <v>1404.759731876466</v>
       </c>
       <c r="U37" t="n">
-        <v>871.6513981325601</v>
+        <v>1365.59153419547</v>
       </c>
       <c r="V37" t="n">
-        <v>663.3139687780233</v>
+        <v>1157.254104840933</v>
       </c>
       <c r="W37" t="n">
-        <v>437.6254825338399</v>
+        <v>1157.254104840933</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6254825338399</v>
+        <v>980.8156984485547</v>
       </c>
       <c r="Y37" t="n">
-        <v>315.0916493498738</v>
+        <v>815.345553089837</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>727.7146423647766</v>
+        <v>184.9804483909192</v>
       </c>
       <c r="C38" t="n">
-        <v>392.1810566923463</v>
+        <v>184.9804483909192</v>
       </c>
       <c r="D38" t="n">
-        <v>392.1810566923463</v>
+        <v>184.9804483909192</v>
       </c>
       <c r="E38" t="n">
-        <v>392.1810566923463</v>
+        <v>184.9804483909192</v>
       </c>
       <c r="F38" t="n">
-        <v>392.1810566923463</v>
+        <v>184.9804483909192</v>
       </c>
       <c r="G38" t="n">
-        <v>38.4986286496037</v>
+        <v>184.9804483909192</v>
       </c>
       <c r="H38" t="n">
-        <v>38.4986286496037</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="I38" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J38" t="n">
-        <v>65.10358873756954</v>
+        <v>250.9815028041615</v>
       </c>
       <c r="K38" t="n">
-        <v>152.6749530096038</v>
+        <v>338.5528670761958</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3011191864499</v>
+        <v>471.1790332530419</v>
       </c>
       <c r="M38" t="n">
-        <v>458.3135095315354</v>
+        <v>639.3363317898616</v>
       </c>
       <c r="N38" t="n">
-        <v>813.2135666662905</v>
+        <v>813.2135666662914</v>
       </c>
       <c r="O38" t="n">
-        <v>968.7329891713717</v>
+        <v>968.7329891713727</v>
       </c>
       <c r="P38" t="n">
-        <v>1079.039567652134</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q38" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R38" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S38" t="n">
-        <v>1433.939624786889</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="T38" t="n">
-        <v>1276.128585145248</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="U38" t="n">
-        <v>1078.164844336055</v>
+        <v>1168.997050095057</v>
       </c>
       <c r="V38" t="n">
-        <v>1078.164844336055</v>
+        <v>1168.997050095057</v>
       </c>
       <c r="W38" t="n">
-        <v>1078.164844336055</v>
+        <v>855.6399308879835</v>
       </c>
       <c r="X38" t="n">
-        <v>1078.164844336055</v>
+        <v>523.8292416456792</v>
       </c>
       <c r="Y38" t="n">
-        <v>739.3160510812951</v>
+        <v>184.9804483909192</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>422.3225276551931</v>
+        <v>422.3225276551933</v>
       </c>
       <c r="C39" t="n">
-        <v>329.3102130399243</v>
+        <v>329.3102130399244</v>
       </c>
       <c r="D39" t="n">
-        <v>256.8631614860436</v>
+        <v>256.8631614860437</v>
       </c>
       <c r="E39" t="n">
-        <v>178.0585864215703</v>
+        <v>178.0585864215705</v>
       </c>
       <c r="F39" t="n">
-        <v>111.2686961293411</v>
+        <v>111.2686961293412</v>
       </c>
       <c r="G39" t="n">
-        <v>49.83443097324408</v>
+        <v>49.83443097324415</v>
       </c>
       <c r="H39" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="I39" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J39" t="n">
-        <v>38.14155108049216</v>
+        <v>232.8765460602196</v>
       </c>
       <c r="K39" t="n">
-        <v>280.5690391415094</v>
+        <v>299.8505437587777</v>
       </c>
       <c r="L39" t="n">
-        <v>400.7334959027386</v>
+        <v>488.1023184147581</v>
       </c>
       <c r="M39" t="n">
-        <v>553.5417134638024</v>
+        <v>640.9105359758219</v>
       </c>
       <c r="N39" t="n">
-        <v>908.4417705985575</v>
+        <v>807.1287515559204</v>
       </c>
       <c r="O39" t="n">
-        <v>1046.056097610933</v>
+        <v>944.7430785682964</v>
       </c>
       <c r="P39" t="n">
-        <v>1400.956154745689</v>
+        <v>1042.624215230976</v>
       </c>
       <c r="Q39" t="n">
-        <v>1433.939624786889</v>
+        <v>1397.524272365732</v>
       </c>
       <c r="R39" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.92148838963</v>
+        <v>1374.921488389632</v>
       </c>
       <c r="T39" t="n">
-        <v>1259.54433958274</v>
+        <v>1259.544339582741</v>
       </c>
       <c r="U39" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V39" t="n">
-        <v>942.2897392387929</v>
+        <v>942.2897392387933</v>
       </c>
       <c r="W39" t="n">
-        <v>769.8144091967187</v>
+        <v>769.814409196719</v>
       </c>
       <c r="X39" t="n">
-        <v>638.1492473713693</v>
+        <v>638.1492473713696</v>
       </c>
       <c r="Y39" t="n">
-        <v>516.4769462715155</v>
+        <v>516.4769462715157</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.3139687780233</v>
+        <v>138.4662823974601</v>
       </c>
       <c r="C40" t="n">
-        <v>575.2162481138027</v>
+        <v>138.4662823974601</v>
       </c>
       <c r="D40" t="n">
-        <v>477.2250508409564</v>
+        <v>138.4662823974601</v>
       </c>
       <c r="E40" t="n">
-        <v>379.3081545247978</v>
+        <v>138.4662823974601</v>
       </c>
       <c r="F40" t="n">
-        <v>279.6241355624097</v>
+        <v>138.4662823974601</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8366456606874</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="H40" t="n">
-        <v>79.33188239555625</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="I40" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J40" t="n">
-        <v>56.04745355804211</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="K40" t="n">
-        <v>66.92994459104776</v>
+        <v>39.56128352874346</v>
       </c>
       <c r="L40" t="n">
-        <v>351.2204839699804</v>
+        <v>323.851822907676</v>
       </c>
       <c r="M40" t="n">
-        <v>664.2069917546798</v>
+        <v>636.8383306923754</v>
       </c>
       <c r="N40" t="n">
-        <v>971.0790329871793</v>
+        <v>939.3652972931673</v>
       </c>
       <c r="O40" t="n">
-        <v>1248.024521656979</v>
+        <v>1216.310785962967</v>
       </c>
       <c r="P40" t="n">
-        <v>1362.83854451432</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="Q40" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R40" t="n">
-        <v>1404.759731876465</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S40" t="n">
-        <v>1273.956932519366</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T40" t="n">
-        <v>1099.403293256519</v>
+        <v>1259.385985524043</v>
       </c>
       <c r="U40" t="n">
-        <v>871.6513981325601</v>
+        <v>1031.634090400085</v>
       </c>
       <c r="V40" t="n">
-        <v>663.3139687780233</v>
+        <v>823.2966610455478</v>
       </c>
       <c r="W40" t="n">
-        <v>663.3139687780233</v>
+        <v>607.9409370152182</v>
       </c>
       <c r="X40" t="n">
-        <v>663.3139687780233</v>
+        <v>431.5025306228402</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.3139687780233</v>
+        <v>266.0323852641225</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>697.8288912463415</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="C41" t="n">
-        <v>362.2953055739111</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="D41" t="n">
-        <v>362.2953055739111</v>
+        <v>750.3656313773628</v>
       </c>
       <c r="E41" t="n">
-        <v>362.2953055739111</v>
+        <v>750.3656313773628</v>
       </c>
       <c r="F41" t="n">
-        <v>362.2953055739111</v>
+        <v>639.7945580458006</v>
       </c>
       <c r="G41" t="n">
-        <v>276.292293849192</v>
+        <v>286.112130003058</v>
       </c>
       <c r="H41" t="n">
-        <v>28.67879249573778</v>
+        <v>38.49862864960376</v>
       </c>
       <c r="I41" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J41" t="n">
-        <v>65.10358873756954</v>
+        <v>326.2564012093202</v>
       </c>
       <c r="K41" t="n">
-        <v>232.9129133340669</v>
+        <v>413.8277654813545</v>
       </c>
       <c r="L41" t="n">
-        <v>587.812970468822</v>
+        <v>546.4539316582006</v>
       </c>
       <c r="M41" t="n">
-        <v>942.7130276035771</v>
+        <v>714.6112301950203</v>
       </c>
       <c r="N41" t="n">
-        <v>1116.590262480007</v>
+        <v>888.4884650714502</v>
       </c>
       <c r="O41" t="n">
-        <v>1272.109684985088</v>
+        <v>1044.007887576531</v>
       </c>
       <c r="P41" t="n">
-        <v>1382.41626346585</v>
+        <v>1154.314466057294</v>
       </c>
       <c r="Q41" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S41" t="n">
-        <v>1366.960790904249</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T41" t="n">
-        <v>1209.149751262608</v>
+        <v>1276.128585145249</v>
       </c>
       <c r="U41" t="n">
-        <v>1011.186010453415</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="V41" t="n">
-        <v>1011.186010453415</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="W41" t="n">
-        <v>697.8288912463415</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="X41" t="n">
-        <v>697.8288912463415</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="Y41" t="n">
-        <v>697.8288912463415</v>
+        <v>1078.164844336056</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>422.322527655193</v>
+        <v>422.3225276551938</v>
       </c>
       <c r="C42" t="n">
-        <v>329.3102130399241</v>
+        <v>329.310213039925</v>
       </c>
       <c r="D42" t="n">
-        <v>256.8631614860434</v>
+        <v>256.8631614860442</v>
       </c>
       <c r="E42" t="n">
-        <v>178.0585864215701</v>
+        <v>178.0585864215709</v>
       </c>
       <c r="F42" t="n">
-        <v>111.2686961293409</v>
+        <v>111.2686961293416</v>
       </c>
       <c r="G42" t="n">
-        <v>49.83443097324408</v>
+        <v>49.83443097324454</v>
       </c>
       <c r="H42" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="I42" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J42" t="n">
-        <v>232.8765460602195</v>
+        <v>232.8765460602196</v>
       </c>
       <c r="K42" t="n">
-        <v>299.8505437587777</v>
+        <v>404.3532140746878</v>
       </c>
       <c r="L42" t="n">
-        <v>420.0150005200069</v>
+        <v>524.517670835917</v>
       </c>
       <c r="M42" t="n">
-        <v>640.9105359758209</v>
+        <v>677.3258883969806</v>
       </c>
       <c r="N42" t="n">
-        <v>807.1287515559195</v>
+        <v>843.5441039770792</v>
       </c>
       <c r="O42" t="n">
-        <v>944.7430785682955</v>
+        <v>981.1584309894552</v>
       </c>
       <c r="P42" t="n">
-        <v>1042.624215230975</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q42" t="n">
-        <v>1397.52427236573</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R42" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.92148838963</v>
+        <v>1374.921488389632</v>
       </c>
       <c r="T42" t="n">
-        <v>1259.54433958274</v>
+        <v>1259.544339582741</v>
       </c>
       <c r="U42" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V42" t="n">
-        <v>942.2897392387927</v>
+        <v>942.2897392387937</v>
       </c>
       <c r="W42" t="n">
-        <v>769.8144091967185</v>
+        <v>769.8144091967195</v>
       </c>
       <c r="X42" t="n">
-        <v>638.1492473713691</v>
+        <v>638.1492473713701</v>
       </c>
       <c r="Y42" t="n">
-        <v>516.4769462715153</v>
+        <v>516.4769462715162</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.7428463814645</v>
+        <v>430.2532623131156</v>
       </c>
       <c r="C43" t="n">
-        <v>417.1796442720926</v>
+        <v>430.2532623131156</v>
       </c>
       <c r="D43" t="n">
-        <v>319.1884469992463</v>
+        <v>430.2532623131156</v>
       </c>
       <c r="E43" t="n">
-        <v>228.9710456625912</v>
+        <v>379.3081545247979</v>
       </c>
       <c r="F43" t="n">
-        <v>228.9710456625912</v>
+        <v>279.6241355624098</v>
       </c>
       <c r="G43" t="n">
-        <v>119.1835557608689</v>
+        <v>169.8366456606875</v>
       </c>
       <c r="H43" t="n">
-        <v>28.67879249573778</v>
+        <v>79.33188239555631</v>
       </c>
       <c r="I43" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J43" t="n">
-        <v>56.04745355804211</v>
+        <v>56.04745355804214</v>
       </c>
       <c r="K43" t="n">
-        <v>66.92994459104776</v>
+        <v>172.6192650066719</v>
       </c>
       <c r="L43" t="n">
-        <v>351.2204839699804</v>
+        <v>456.9098043856044</v>
       </c>
       <c r="M43" t="n">
-        <v>664.2069917546798</v>
+        <v>769.8963121703039</v>
       </c>
       <c r="N43" t="n">
-        <v>971.0790329871793</v>
+        <v>1076.768353402803</v>
       </c>
       <c r="O43" t="n">
-        <v>1145.209705690397</v>
+        <v>1353.713842072603</v>
       </c>
       <c r="P43" t="n">
-        <v>1362.83854451432</v>
+        <v>1362.838544514321</v>
       </c>
       <c r="Q43" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R43" t="n">
-        <v>1404.759731876465</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S43" t="n">
-        <v>1273.956932519366</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T43" t="n">
-        <v>1099.403293256519</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="U43" t="n">
-        <v>871.6513981325601</v>
+        <v>1206.187729662932</v>
       </c>
       <c r="V43" t="n">
-        <v>871.6513981325601</v>
+        <v>997.8503003083947</v>
       </c>
       <c r="W43" t="n">
-        <v>871.6513981325601</v>
+        <v>772.1618140642113</v>
       </c>
       <c r="X43" t="n">
-        <v>695.2129917401821</v>
+        <v>595.7234076718333</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.7428463814645</v>
+        <v>430.2532623131156</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>387.9313151411211</v>
+        <v>991.6636916734064</v>
       </c>
       <c r="C44" t="n">
-        <v>387.9313151411211</v>
+        <v>991.6636916734064</v>
       </c>
       <c r="D44" t="n">
-        <v>387.9313151411211</v>
+        <v>663.8644787147131</v>
       </c>
       <c r="E44" t="n">
-        <v>387.9313151411211</v>
+        <v>663.8644787147131</v>
       </c>
       <c r="F44" t="n">
-        <v>28.67879249573778</v>
+        <v>304.6119560693297</v>
       </c>
       <c r="G44" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="H44" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="I44" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J44" t="n">
-        <v>65.10358873756954</v>
+        <v>250.9815028041615</v>
       </c>
       <c r="K44" t="n">
-        <v>152.6749530096038</v>
+        <v>338.5528670761958</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3011191864499</v>
+        <v>471.1790332530419</v>
       </c>
       <c r="M44" t="n">
-        <v>640.2011763212049</v>
+        <v>639.3363317898616</v>
       </c>
       <c r="N44" t="n">
-        <v>995.10123345596</v>
+        <v>813.2135666662914</v>
       </c>
       <c r="O44" t="n">
-        <v>1272.109684985088</v>
+        <v>968.7329891713727</v>
       </c>
       <c r="P44" t="n">
-        <v>1382.41626346585</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q44" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R44" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S44" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T44" t="n">
-        <v>1433.939624786889</v>
+        <v>1276.128585145249</v>
       </c>
       <c r="U44" t="n">
-        <v>1433.939624786889</v>
+        <v>1276.128585145249</v>
       </c>
       <c r="V44" t="n">
-        <v>1401.443627524943</v>
+        <v>991.6636916734064</v>
       </c>
       <c r="W44" t="n">
-        <v>1401.443627524943</v>
+        <v>991.6636916734064</v>
       </c>
       <c r="X44" t="n">
-        <v>1069.632938282639</v>
+        <v>991.6636916734064</v>
       </c>
       <c r="Y44" t="n">
-        <v>730.784145027879</v>
+        <v>991.6636916734064</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>422.3225276551933</v>
+        <v>422.3225276551937</v>
       </c>
       <c r="C45" t="n">
-        <v>329.3102130399244</v>
+        <v>329.3102130399248</v>
       </c>
       <c r="D45" t="n">
-        <v>256.8631614860437</v>
+        <v>256.863161486044</v>
       </c>
       <c r="E45" t="n">
-        <v>178.0585864215703</v>
+        <v>178.0585864215706</v>
       </c>
       <c r="F45" t="n">
-        <v>111.2686961293411</v>
+        <v>111.2686961293413</v>
       </c>
       <c r="G45" t="n">
-        <v>49.83443097324408</v>
+        <v>49.83443097324417</v>
       </c>
       <c r="H45" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="I45" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J45" t="n">
-        <v>38.14155108049216</v>
+        <v>232.8765460602196</v>
       </c>
       <c r="K45" t="n">
-        <v>393.0416082152472</v>
+        <v>432.8355282750082</v>
       </c>
       <c r="L45" t="n">
-        <v>513.2060649764765</v>
+        <v>552.9999850362374</v>
       </c>
       <c r="M45" t="n">
-        <v>742.2235550184589</v>
+        <v>705.808202597301</v>
       </c>
       <c r="N45" t="n">
-        <v>908.4417705985575</v>
+        <v>872.0264181773996</v>
       </c>
       <c r="O45" t="n">
-        <v>1046.056097610933</v>
+        <v>1009.640745189776</v>
       </c>
       <c r="P45" t="n">
-        <v>1400.956154745689</v>
+        <v>1364.540802324531</v>
       </c>
       <c r="Q45" t="n">
-        <v>1433.939624786889</v>
+        <v>1397.524272365732</v>
       </c>
       <c r="R45" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.92148838963</v>
+        <v>1374.921488389632</v>
       </c>
       <c r="T45" t="n">
         <v>1259.544339582741</v>
       </c>
       <c r="U45" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V45" t="n">
-        <v>942.2897392387931</v>
+        <v>942.2897392387937</v>
       </c>
       <c r="W45" t="n">
-        <v>769.8144091967189</v>
+        <v>769.8144091967195</v>
       </c>
       <c r="X45" t="n">
-        <v>638.1492473713695</v>
+        <v>638.1492473713699</v>
       </c>
       <c r="Y45" t="n">
-        <v>516.4769462715157</v>
+        <v>516.4769462715161</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.67879249573778</v>
+        <v>392.1873376717818</v>
       </c>
       <c r="C46" t="n">
-        <v>28.67879249573778</v>
+        <v>279.6241355624099</v>
       </c>
       <c r="D46" t="n">
-        <v>28.67879249573778</v>
+        <v>279.6241355624099</v>
       </c>
       <c r="E46" t="n">
-        <v>28.67879249573778</v>
+        <v>279.6241355624099</v>
       </c>
       <c r="F46" t="n">
-        <v>28.67879249573778</v>
+        <v>279.6241355624099</v>
       </c>
       <c r="G46" t="n">
-        <v>28.67879249573778</v>
+        <v>169.8366456606875</v>
       </c>
       <c r="H46" t="n">
-        <v>28.67879249573778</v>
+        <v>79.33188239555633</v>
       </c>
       <c r="I46" t="n">
-        <v>28.67879249573778</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="J46" t="n">
-        <v>56.04745355804211</v>
+        <v>28.67879249573781</v>
       </c>
       <c r="K46" t="n">
-        <v>231.7850173337291</v>
+        <v>39.56128352874346</v>
       </c>
       <c r="L46" t="n">
-        <v>516.0755567126616</v>
+        <v>319.5067482759684</v>
       </c>
       <c r="M46" t="n">
-        <v>632.4932560606667</v>
+        <v>632.4932560606678</v>
       </c>
       <c r="N46" t="n">
-        <v>939.3652972931661</v>
+        <v>939.3652972931673</v>
       </c>
       <c r="O46" t="n">
-        <v>1216.310785962965</v>
+        <v>1216.310785962967</v>
       </c>
       <c r="P46" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="Q46" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="R46" t="n">
-        <v>1433.939624786889</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S46" t="n">
-        <v>1334.484897099022</v>
+        <v>1404.957194049686</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.931257836175</v>
+        <v>1230.403554786839</v>
       </c>
       <c r="U46" t="n">
-        <v>932.1793627122161</v>
+        <v>1002.65165966288</v>
       </c>
       <c r="V46" t="n">
-        <v>723.8419333576792</v>
+        <v>794.3142303083432</v>
       </c>
       <c r="W46" t="n">
-        <v>498.1534471134958</v>
+        <v>568.6257440641598</v>
       </c>
       <c r="X46" t="n">
-        <v>321.7150407211178</v>
+        <v>392.1873376717818</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.2448953624001</v>
+        <v>392.1873376717818</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>35.44826307451549</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>153.5582056821598</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>166.3237370273501</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.53948611559025</v>
       </c>
       <c r="R11" t="n">
         <v>25.80329536283242</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>67.31592500592249</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>224.5442277772504</v>
+        <v>1.762726398367718</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>290.0974263848053</v>
       </c>
       <c r="R12" t="n">
         <v>34.23062064186371</v>
@@ -8850,7 +8850,7 @@
         <v>24.82742427930262</v>
       </c>
       <c r="K13" t="n">
-        <v>166.520275497658</v>
+        <v>67.35490464280183</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
@@ -8859,7 +8859,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
-        <v>168.8702674225042</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
         <v>254.3449995307766</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2456226691273</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>143.3369293381712</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>211.9932764458541</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.3702634758776</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283242</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>163.9829646989041</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>169.0623278798931</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>155.5168753354135</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>224.5442277772505</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>264.0179401369603</v>
       </c>
       <c r="R15" t="n">
         <v>34.23062064186371</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.82742427930262</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>67.35490464280187</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.11574206669745</v>
+        <v>69.82553452535336</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.65774686205189</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>234.9581392829531</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>166.3237370273501</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>189.0064687566752</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283242</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>255.0769685193762</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.0623278798931</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>122.7978249032799</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.23062064186371</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>24.82742427930262</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>67.35490464280183</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
@@ -9336,13 +9336,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>39.27039240107948</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>30.11574206669745</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>130.8353939371991</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>147.7804922078061</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>207.5497135762191</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283242</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>155.5168753354135</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.5010648015467</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>224.5442277772504</v>
+        <v>224.5442277772505</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>264.0179401369603</v>
       </c>
       <c r="R21" t="n">
         <v>34.23062064186371</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>110.2052002777227</v>
       </c>
       <c r="M22" t="n">
         <v>278.4750710187352</v>
@@ -9573,7 +9573,7 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>111.0896654036744</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
         <v>210.6102387699041</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>22.82845190837082</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>434.3424562659595</v>
       </c>
       <c r="M23" t="n">
-        <v>398.4524235791175</v>
+        <v>398.4524235791176</v>
       </c>
       <c r="N23" t="n">
         <v>392.6747101047639</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>22.82845190837058</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9722,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>214.5727746507504</v>
       </c>
       <c r="M24" t="n">
-        <v>300.8087515596769</v>
+        <v>413.9565457768508</v>
       </c>
       <c r="N24" t="n">
         <v>400.4110932323713</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.23062064186371</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>57.06112454505779</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>479.852357179911</v>
       </c>
       <c r="L26" t="n">
-        <v>122.6672728890428</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>398.4524235791177</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>392.674710104764</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>411.217954924308</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>456.887494342812</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>25.80329536283242</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>427.6001096904499</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>248.5195393456622</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>34.23062064186371</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>479.8523571799111</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>273.1227620565344</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>456.8874943428121</v>
+        <v>250.1578992194347</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>25.80329536283243</v>
+        <v>25.80329536283242</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>112.5719264515044</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>446.9300415342598</v>
+        <v>342.7549088187518</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>429.3039099674448</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>469.4384456742085</v>
+        <v>469.4384456742083</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>125.6955268006612</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>479.8523571799111</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>411.2179549243082</v>
+        <v>411.217954924308</v>
       </c>
       <c r="P32" t="n">
-        <v>456.8874943428121</v>
+        <v>433.9420493930134</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>25.80329536283243</v>
+        <v>25.80329536283242</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>446.9300415342597</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>413.9565457768511</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>400.4110932323715</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>160.1634588201381</v>
+        <v>211.7363550818649</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>469.4384456742083</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>187.7554687541333</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>188.6290490888236</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>182.8513356144699</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>46.00187129436031</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>306.4411068825418</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283242</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>204.1331712865572</v>
       </c>
       <c r="N36" t="n">
-        <v>190.5877187420774</v>
+        <v>167.0316467393558</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>219.4805354771509</v>
       </c>
       <c r="P36" t="n">
-        <v>111.6725492333131</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>325.1682697914691</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.23062064186371</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.4725364634484</v>
+        <v>24.82742427930262</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>249.0715701303727</v>
       </c>
       <c r="M37" t="n">
-        <v>246.4409945601361</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>187.7554687541333</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.904133139662463</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>182.8513356144699</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>306.4411068825415</v>
+        <v>306.4411068825418</v>
       </c>
       <c r="R38" t="n">
         <v>25.80329536283242</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>177.2257478408678</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>68.77506858055675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>190.5877187420774</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>259.6150711839143</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>325.1682697914694</v>
       </c>
       <c r="R39" t="n">
-        <v>34.23062064186371</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>24.82742427930262</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>268.0356382773604</v>
+        <v>263.6466740029082</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>106.75688930871</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>30.11574206669745</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>81.04844477218498</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>224.5190817756657</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>188.6290490888236</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>230.4058559682401</v>
       </c>
       <c r="R41" t="n">
         <v>25.80329536283242</v>
@@ -11141,13 +11141,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>105.5582528443536</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>68.77506858055591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>325.1682697914691</v>
+        <v>325.1682697914694</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>34.23062064186371</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7568893087112</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
@@ -11232,10 +11232,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>150.4916500695826</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>101.9350150692923</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>187.7554687541333</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>188.6290490888236</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>182.8513356144699</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>122.7161909333806</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>306.4411068825418</v>
       </c>
       <c r="R44" t="n">
         <v>25.80329536283242</v>
@@ -11375,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>290.834403470906</v>
+        <v>134.3282671881116</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>76.97906311203914</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>259.6150711839143</v>
+        <v>259.6150711839146</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.23062064186371</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>24.82742427930262</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>249.0715701303727</v>
       </c>
       <c r="M46" t="n">
-        <v>79.9207190624783</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -23260,22 +23260,22 @@
         <v>329.7026637955631</v>
       </c>
       <c r="C11" t="n">
-        <v>273.0092340654878</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D11" t="n">
         <v>314.7995830367791</v>
       </c>
       <c r="E11" t="n">
-        <v>8.356492385842614</v>
+        <v>331.7705551759011</v>
       </c>
       <c r="F11" t="n">
         <v>22.52429683654373</v>
       </c>
       <c r="G11" t="n">
-        <v>17.00990317992944</v>
+        <v>340.4239659699879</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>235.4157285475924</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.5874077514863</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>146.5112914528974</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>186.262465608774</v>
       </c>
       <c r="V11" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>300.5019102226756</v>
+        <v>162.57892864381</v>
       </c>
       <c r="X11" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>325.738667529885</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.5688040456684</v>
       </c>
       <c r="C13" t="n">
         <v>101.7159322959509</v>
       </c>
       <c r="D13" t="n">
-        <v>87.28964750779058</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>42.27802986587928</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>98.96797721037782</v>
       </c>
       <c r="H13" t="n">
-        <v>79.87807784015256</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.42492120849302</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6050083764305</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>196.5324172686642</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>154.0938061128032</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>329.7026637955631</v>
       </c>
       <c r="C14" t="n">
-        <v>221.4937780202264</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D14" t="n">
-        <v>314.7995830367791</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.356492385842614</v>
+        <v>331.7705551759011</v>
       </c>
       <c r="F14" t="n">
         <v>345.9383596266022</v>
       </c>
       <c r="G14" t="n">
-        <v>17.00990317992944</v>
+        <v>340.4239659699879</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>56.5874077514863</v>
       </c>
       <c r="T14" t="n">
-        <v>146.5112914528974</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>186.262465608774</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W14" t="n">
-        <v>300.5019102226756</v>
+        <v>60.89416294183977</v>
       </c>
       <c r="X14" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>325.738667529885</v>
@@ -23661,16 +23661,16 @@
         <v>87.28964750779058</v>
       </c>
       <c r="E16" t="n">
-        <v>87.21608956066969</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.94320350451444</v>
+        <v>88.96554098043696</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>98.96797721037782</v>
       </c>
       <c r="H16" t="n">
-        <v>79.87807784015256</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>40.42492120849302</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.962431137845684</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>164.9523845361269</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>154.0938061128032</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.288601005504631</v>
+        <v>329.7026637955631</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>314.7995830367791</v>
       </c>
       <c r="E17" t="n">
-        <v>331.7705551759011</v>
+        <v>8.356492385842614</v>
       </c>
       <c r="F17" t="n">
-        <v>298.324557482195</v>
+        <v>345.9383596266022</v>
       </c>
       <c r="G17" t="n">
-        <v>340.4239659699879</v>
+        <v>111.1908164493112</v>
       </c>
       <c r="H17" t="n">
         <v>235.4157285475924</v>
@@ -23788,7 +23788,7 @@
         <v>146.5112914528974</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>186.262465608774</v>
       </c>
       <c r="V17" t="n">
         <v>271.898606744797</v>
@@ -23797,10 +23797,10 @@
         <v>300.5019102226756</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.738667529885</v>
+        <v>2.324604739826611</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.55288667481921</v>
+        <v>116.5688040456684</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.7159322959509</v>
       </c>
       <c r="D19" t="n">
         <v>87.28964750779058</v>
@@ -23904,13 +23904,13 @@
         <v>88.96554098043696</v>
       </c>
       <c r="G19" t="n">
-        <v>98.96797721037782</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>79.87807784015256</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>40.42492120849302</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>90.93004706020453</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>164.9523845361269</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>329.7026637955631</v>
       </c>
       <c r="C20" t="n">
-        <v>169.5328920683068</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D20" t="n">
         <v>314.7995830367791</v>
       </c>
       <c r="E20" t="n">
-        <v>8.356492385842614</v>
+        <v>201.7589877882119</v>
       </c>
       <c r="F20" t="n">
-        <v>345.9383596266022</v>
+        <v>22.52429683654373</v>
       </c>
       <c r="G20" t="n">
-        <v>340.4239659699879</v>
+        <v>17.00990317992944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>271.898606744797</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>300.5019102226756</v>
       </c>
       <c r="X20" t="n">
         <v>318.7709445575539</v>
@@ -24129,10 +24129,10 @@
         <v>116.5688040456684</v>
       </c>
       <c r="C22" t="n">
-        <v>101.7159322959509</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87.28964750779058</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.11159775777679</v>
       </c>
       <c r="H22" t="n">
         <v>79.87807784015256</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.42492120849302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S22" t="n">
-        <v>119.773133571201</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>163.0864650778911</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>215.7527383803918</v>
       </c>
       <c r="V22" t="n">
-        <v>33.66965912579994</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.0938061128032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.7026637955631</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>314.7995830367791</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>345.9383596266022</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>340.4239659699879</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>235.4157285475924</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>56.5874077514863</v>
       </c>
       <c r="T23" t="n">
         <v>146.5112914528974</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>300.5019102226756</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>318.7709445575539</v>
+        <v>310.1487673963613</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.73912767945831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>64.30143593599934</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>87.58066618242248</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>407.2111004287077</v>
       </c>
       <c r="H26" t="n">
-        <v>302.2028630063123</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>66.78713445871982</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.7551116690976</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.6652122988724</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>84.62795158616562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>85.95359064771257</v>
       </c>
       <c r="S28" t="n">
-        <v>186.5602680299208</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>282.5398728391116</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.7324399374368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15.14926970368595</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>66.78713445871982</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>253.0496000674938</v>
       </c>
       <c r="V29" t="n">
-        <v>103.891105963109</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>140.9083441067789</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24852,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7551116690976</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.6652122988724</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>107.2120556672128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>85.95359064771257</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.873599536611</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5398728391116</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.8850006189645</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>311.6058259372901</v>
       </c>
       <c r="C32" t="n">
-        <v>332.1782498157061</v>
+        <v>332.1782498157062</v>
       </c>
       <c r="D32" t="n">
-        <v>324.5212208291064</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>341.4921929682284</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>355.6599974189295</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>350.1456037623152</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>26.87605547423303</v>
+        <v>66.30904554381358</v>
       </c>
       <c r="T32" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>339.4243015878903</v>
+        <v>339.4243015878904</v>
       </c>
       <c r="C35" t="n">
-        <v>285.4917573935949</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>324.5212208291064</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>341.4921929682283</v>
+        <v>341.4921929682284</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>355.6599974189295</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>205.9561598933463</v>
       </c>
       <c r="H35" t="n">
-        <v>245.1373663399197</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>9.721637792327257</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.30904554381355</v>
+        <v>66.30904554381358</v>
       </c>
       <c r="T35" t="n">
         <v>156.2329292452246</v>
@@ -25213,16 +25213,16 @@
         <v>195.9841034011013</v>
       </c>
       <c r="V35" t="n">
-        <v>281.6202445371242</v>
+        <v>281.6202445371243</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>310.2235480150029</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4375700882781</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.68717877276421</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.6896150027051</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.14655900082028</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>129.4947713635283</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.6978604685327</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>223.4316013817416</v>
       </c>
       <c r="X37" t="n">
-        <v>174.6740223284542</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.50694905300405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327.9389069585371</v>
+        <v>339.4243015878904</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>332.1782498157062</v>
       </c>
       <c r="D38" t="n">
         <v>324.5212208291064</v>
       </c>
       <c r="E38" t="n">
-        <v>341.4921929682283</v>
+        <v>341.4921929682284</v>
       </c>
       <c r="F38" t="n">
-        <v>355.6599974189294</v>
+        <v>355.6599974189295</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>350.1456037623152</v>
       </c>
       <c r="H38" t="n">
-        <v>245.1373663399197</v>
+        <v>90.39872700369017</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.30904554381355</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>281.6202445371242</v>
+        <v>281.6202445371243</v>
       </c>
       <c r="W38" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.22082663069976</v>
+        <v>111.4375700882781</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.01128530011786</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>96.93772735299697</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.68717877276424</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>89.59971563247984</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.1465590008203</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>28.88809398132004</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>129.4947713635283</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.4316013817416</v>
+        <v>10.22943459171532</v>
       </c>
       <c r="X40" t="n">
-        <v>174.6740223284542</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.8154439051305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>339.4243015878903</v>
+        <v>339.4243015878904</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>332.1782498157062</v>
       </c>
       <c r="D41" t="n">
-        <v>324.5212208291064</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>341.4921929682283</v>
+        <v>341.4921929682284</v>
       </c>
       <c r="F41" t="n">
-        <v>355.6599974189294</v>
+        <v>246.1946348206829</v>
       </c>
       <c r="G41" t="n">
-        <v>265.0026221548433</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.721637792327257</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>66.30904554381358</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>281.6202445371242</v>
+        <v>281.6202445371243</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>310.2235480150029</v>
       </c>
       <c r="X41" t="n">
         <v>328.4925823498812</v>
       </c>
       <c r="Y41" t="n">
-        <v>335.4603053222123</v>
+        <v>335.4603053222124</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>126.2904418379957</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.4375700882781</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.01128530011786</v>
       </c>
       <c r="E43" t="n">
-        <v>7.622500029708419</v>
+        <v>46.50207064256242</v>
       </c>
       <c r="F43" t="n">
-        <v>98.68717877276421</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>50.14655900082028</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.88809398132004</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>129.4947713635283</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>206.2540550609914</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>223.4316013817416</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>339.4243015878904</v>
       </c>
       <c r="C44" t="n">
-        <v>332.1782498157061</v>
+        <v>332.1782498157062</v>
       </c>
       <c r="D44" t="n">
-        <v>324.5212208291064</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>341.4921929682283</v>
+        <v>341.4921929682284</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>350.1456037623151</v>
+        <v>76.97177182445921</v>
       </c>
       <c r="H44" t="n">
         <v>245.1373663399197</v>
       </c>
       <c r="I44" t="n">
-        <v>9.721637792327257</v>
+        <v>9.721637792327314</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.30904554381355</v>
+        <v>66.30904554381361</v>
       </c>
       <c r="T44" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>195.9841034011013</v>
       </c>
       <c r="V44" t="n">
-        <v>249.4492072477976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>310.2235480150028</v>
+        <v>310.2235480150029</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>335.4603053222124</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>126.2904418379958</v>
       </c>
       <c r="C46" t="n">
-        <v>111.4375700882781</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.01128530011783</v>
+        <v>97.01128530011789</v>
       </c>
       <c r="E46" t="n">
-        <v>96.93772735299694</v>
+        <v>96.937727352997</v>
       </c>
       <c r="F46" t="n">
-        <v>98.68717877276421</v>
+        <v>98.68717877276427</v>
       </c>
       <c r="G46" t="n">
-        <v>108.6896150027051</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>89.59971563247981</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>50.14655900082028</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.88809398132001</v>
+        <v>28.88809398132007</v>
       </c>
       <c r="S46" t="n">
-        <v>31.03459095253942</v>
+        <v>100.8021649336957</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>163.8154439051306</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449129.121570293</v>
+        <v>449129.1215702931</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449129.121570293</v>
+        <v>449129.1215702931</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449129.1215702931</v>
+        <v>449129.121570293</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>449129.121570293</v>
+        <v>449129.1215702931</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>573341.1624785569</v>
+        <v>573341.162478557</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457229.2452592138</v>
+        <v>457229.2452592139</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457229.2452592137</v>
+        <v>457229.2452592138</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>665627.118864453</v>
+        <v>665627.1188644528</v>
       </c>
       <c r="C2" t="n">
-        <v>665627.1188644532</v>
+        <v>665627.1188644528</v>
       </c>
       <c r="D2" t="n">
-        <v>665627.1188644528</v>
+        <v>665627.1188644527</v>
       </c>
       <c r="E2" t="n">
-        <v>462492.3844147386</v>
+        <v>462492.3844147385</v>
       </c>
       <c r="F2" t="n">
+        <v>462492.3844147385</v>
+      </c>
+      <c r="G2" t="n">
+        <v>462492.3844147387</v>
+      </c>
+      <c r="H2" t="n">
         <v>462492.3844147384</v>
       </c>
-      <c r="G2" t="n">
-        <v>462492.3844147386</v>
-      </c>
-      <c r="H2" t="n">
-        <v>462492.3844147386</v>
-      </c>
       <c r="I2" t="n">
-        <v>547853.624510197</v>
+        <v>547853.6245101969</v>
       </c>
       <c r="J2" t="n">
         <v>443887.7603943482</v>
@@ -26343,19 +26343,19 @@
         <v>443887.7603943482</v>
       </c>
       <c r="L2" t="n">
-        <v>537116.5616504613</v>
+        <v>537116.5616504612</v>
       </c>
       <c r="M2" t="n">
         <v>461344.9395061097</v>
       </c>
       <c r="N2" t="n">
-        <v>461344.9395061097</v>
+        <v>461344.9395061098</v>
       </c>
       <c r="O2" t="n">
-        <v>461344.9395061097</v>
+        <v>461344.9395061104</v>
       </c>
       <c r="P2" t="n">
-        <v>461344.9395061104</v>
+        <v>461344.9395061096</v>
       </c>
     </row>
     <row r="3">
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45652.39733311406</v>
+        <v>45652.39733311402</v>
       </c>
       <c r="M3" t="n">
-        <v>28307.25388705448</v>
+        <v>28307.25388705456</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,13 +26441,13 @@
         <v>159007.4634992525</v>
       </c>
       <c r="J4" t="n">
+        <v>94763.88961053762</v>
+      </c>
+      <c r="K4" t="n">
         <v>94763.88961053763</v>
       </c>
-      <c r="K4" t="n">
-        <v>94763.88961053766</v>
-      </c>
       <c r="L4" t="n">
-        <v>152431.1832407548</v>
+        <v>152431.1832407547</v>
       </c>
       <c r="M4" t="n">
         <v>117173.5658077231</v>
@@ -26499,16 +26499,16 @@
         <v>44422.69774414969</v>
       </c>
       <c r="L5" t="n">
-        <v>49220.13698339665</v>
+        <v>49220.13698339664</v>
       </c>
       <c r="M5" t="n">
-        <v>36462.87581438677</v>
+        <v>36462.87581438678</v>
       </c>
       <c r="N5" t="n">
-        <v>36462.87581438677</v>
+        <v>36462.87581438678</v>
       </c>
       <c r="O5" t="n">
-        <v>36462.87581438677</v>
+        <v>36462.87581438678</v>
       </c>
       <c r="P5" t="n">
         <v>36462.87581438677</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239427.5516387605</v>
+        <v>239423.2220709739</v>
       </c>
       <c r="C6" t="n">
-        <v>239427.5516387607</v>
+        <v>239423.2220709739</v>
       </c>
       <c r="D6" t="n">
-        <v>239427.5516387603</v>
+        <v>239423.2220709738</v>
       </c>
       <c r="E6" t="n">
-        <v>-206445.0162928186</v>
+        <v>-206998.3586564152</v>
       </c>
       <c r="F6" t="n">
-        <v>307275.1398970337</v>
+        <v>306721.7975334374</v>
       </c>
       <c r="G6" t="n">
-        <v>307275.1398970339</v>
+        <v>306721.7975334376</v>
       </c>
       <c r="H6" t="n">
-        <v>307275.1398970339</v>
+        <v>306721.7975334373</v>
       </c>
       <c r="I6" t="n">
-        <v>273686.2203426078</v>
+        <v>273363.5840333233</v>
       </c>
       <c r="J6" t="n">
-        <v>304701.1730396609</v>
+        <v>304097.5479084418</v>
       </c>
       <c r="K6" t="n">
-        <v>304701.1730396609</v>
+        <v>304097.5479084418</v>
       </c>
       <c r="L6" t="n">
-        <v>289812.8440931957</v>
+        <v>289461.1886951013</v>
       </c>
       <c r="M6" t="n">
-        <v>279401.2439969453</v>
+        <v>278844.8004308931</v>
       </c>
       <c r="N6" t="n">
-        <v>307708.4978839999</v>
+        <v>307152.0543179478</v>
       </c>
       <c r="O6" t="n">
-        <v>307708.4978839999</v>
+        <v>307152.0543179484</v>
       </c>
       <c r="P6" t="n">
-        <v>307708.4978840007</v>
+        <v>307152.0543179475</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="M2" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="N2" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="O2" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="P2" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
     </row>
     <row r="3">
@@ -26764,10 +26764,10 @@
         <v>452.7318476320685</v>
       </c>
       <c r="K3" t="n">
-        <v>452.7318476320684</v>
+        <v>452.7318476320685</v>
       </c>
       <c r="L3" t="n">
-        <v>452.7318476320684</v>
+        <v>452.7318476320685</v>
       </c>
       <c r="M3" t="n">
         <v>452.7318476320685</v>
@@ -26816,22 +26816,22 @@
         <v>568.3082806870163</v>
       </c>
       <c r="K4" t="n">
-        <v>568.3082806870165</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="L4" t="n">
-        <v>568.3082806870165</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="M4" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="N4" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="O4" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="P4" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>113.5906882997644</v>
+        <v>113.5906882997647</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28651,7 +28651,7 @@
         <v>66.78713445871982</v>
       </c>
       <c r="E18" t="n">
-        <v>66.78713445871976</v>
+        <v>66.78713445871982</v>
       </c>
       <c r="F18" t="n">
         <v>66.78713445871982</v>
@@ -28888,7 +28888,7 @@
         <v>66.78713445871982</v>
       </c>
       <c r="E21" t="n">
-        <v>66.78713445871976</v>
+        <v>66.78713445871982</v>
       </c>
       <c r="F21" t="n">
         <v>66.78713445871982</v>
@@ -29222,19 +29222,19 @@
         <v>66.78713445871982</v>
       </c>
       <c r="K25" t="n">
-        <v>30.67101280751913</v>
+        <v>66.78713445871982</v>
       </c>
       <c r="L25" t="n">
+        <v>30.67101280751922</v>
+      </c>
+      <c r="M25" t="n">
         <v>66.78713445871982</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>66.78713445871982</v>
       </c>
       <c r="O25" t="n">
-        <v>66.78713445871982</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y32" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="K34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="L34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="M34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="N34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="O34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="P34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="R34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="S34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H36" t="n">
-        <v>57.06549666639314</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I36" t="n">
         <v>15.3655983924364</v>
@@ -30115,25 +30115,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="S37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y38" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I39" t="n">
         <v>15.3655983924364</v>
@@ -30352,25 +30352,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="40">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="S40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I42" t="n">
         <v>15.3655983924364</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y42" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="C43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="D43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="E43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="F43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="G43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="H43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="I43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="S43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="T43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="U43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="V43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="W43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="X43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639253</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="C44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="D44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="E44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="F44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="G44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="H44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="I44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="T44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="U44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="V44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="W44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="X44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="C45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="D45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="E45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="F45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="G45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="H45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="I45" t="n">
         <v>15.3655983924364</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="T45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="U45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="V45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="W45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="X45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
     </row>
     <row r="46">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="C46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="D46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="E46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="F46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="G46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="H46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="I46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30902,28 +30902,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="S46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="T46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="U46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="V46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="W46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="X46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.06549666639257</v>
+        <v>57.06549666639251</v>
       </c>
     </row>
   </sheetData>
@@ -33177,25 +33177,25 @@
         <v>1.820027528169118</v>
       </c>
       <c r="H29" t="n">
-        <v>18.63935692286198</v>
+        <v>18.63935692286199</v>
       </c>
       <c r="I29" t="n">
-        <v>70.16661127973998</v>
+        <v>70.16661127974</v>
       </c>
       <c r="J29" t="n">
         <v>154.4725614189438</v>
       </c>
       <c r="K29" t="n">
-        <v>231.5143266863426</v>
+        <v>231.5143266863427</v>
       </c>
       <c r="L29" t="n">
-        <v>287.2139941515483</v>
+        <v>287.2139941515484</v>
       </c>
       <c r="M29" t="n">
         <v>319.5809087056259</v>
       </c>
       <c r="N29" t="n">
-        <v>324.7520619200364</v>
+        <v>324.7520619200365</v>
       </c>
       <c r="O29" t="n">
         <v>306.6541631868047</v>
@@ -33213,7 +33213,7 @@
         <v>41.47387729815382</v>
       </c>
       <c r="T29" t="n">
-        <v>7.967170504560317</v>
+        <v>7.967170504560318</v>
       </c>
       <c r="U29" t="n">
         <v>0.1456022022535294</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9738005779255812</v>
+        <v>0.9738005779255813</v>
       </c>
       <c r="H30" t="n">
         <v>9.404863476281273</v>
       </c>
       <c r="I30" t="n">
-        <v>33.52778305577111</v>
+        <v>33.52778305577112</v>
       </c>
       <c r="J30" t="n">
-        <v>92.00279933813573</v>
+        <v>92.00279933813574</v>
       </c>
       <c r="K30" t="n">
         <v>157.2474380591497</v>
@@ -33277,7 +33277,7 @@
         <v>253.2693003088116</v>
       </c>
       <c r="O30" t="n">
-        <v>231.6919296084605</v>
+        <v>231.6919296084606</v>
       </c>
       <c r="P30" t="n">
         <v>185.9531998321226</v>
@@ -33286,16 +33286,16 @@
         <v>124.3047895611672</v>
       </c>
       <c r="R30" t="n">
-        <v>60.46105693471286</v>
+        <v>60.46105693471287</v>
       </c>
       <c r="S30" t="n">
         <v>18.08791862945102</v>
       </c>
       <c r="T30" t="n">
-        <v>3.925099697866705</v>
+        <v>3.925099697866706</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06406582749510405</v>
+        <v>0.06406582749510406</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8164016924512708</v>
+        <v>0.8164016924512709</v>
       </c>
       <c r="H31" t="n">
         <v>7.258553229248577</v>
       </c>
       <c r="I31" t="n">
-        <v>24.55142544208004</v>
+        <v>24.55142544208005</v>
       </c>
       <c r="J31" t="n">
-        <v>57.71959965630484</v>
+        <v>57.71959965630485</v>
       </c>
       <c r="K31" t="n">
-        <v>94.85103299570217</v>
+        <v>94.85103299570218</v>
       </c>
       <c r="L31" t="n">
         <v>121.3766661668008</v>
@@ -33353,22 +33353,22 @@
         <v>127.9746762085206</v>
       </c>
       <c r="N31" t="n">
-        <v>124.9317244457477</v>
+        <v>124.9317244457478</v>
       </c>
       <c r="O31" t="n">
         <v>115.3946683112033</v>
       </c>
       <c r="P31" t="n">
-        <v>98.7400737851973</v>
+        <v>98.74007378519731</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.36250899244233</v>
+        <v>68.36250899244234</v>
       </c>
       <c r="R31" t="n">
-        <v>36.70838882603622</v>
+        <v>36.70838882603623</v>
       </c>
       <c r="S31" t="n">
-        <v>14.22765494935532</v>
+        <v>14.22765494935533</v>
       </c>
       <c r="T31" t="n">
         <v>3.488261776837247</v>
@@ -33414,25 +33414,25 @@
         <v>1.820027528169118</v>
       </c>
       <c r="H32" t="n">
-        <v>18.63935692286198</v>
+        <v>18.63935692286199</v>
       </c>
       <c r="I32" t="n">
-        <v>70.16661127973998</v>
+        <v>70.16661127974</v>
       </c>
       <c r="J32" t="n">
         <v>154.4725614189438</v>
       </c>
       <c r="K32" t="n">
-        <v>231.5143266863426</v>
+        <v>231.5143266863427</v>
       </c>
       <c r="L32" t="n">
-        <v>287.2139941515483</v>
+        <v>287.2139941515484</v>
       </c>
       <c r="M32" t="n">
         <v>319.5809087056259</v>
       </c>
       <c r="N32" t="n">
-        <v>324.7520619200364</v>
+        <v>324.7520619200365</v>
       </c>
       <c r="O32" t="n">
         <v>306.6541631868047</v>
@@ -33450,7 +33450,7 @@
         <v>41.47387729815382</v>
       </c>
       <c r="T32" t="n">
-        <v>7.967170504560317</v>
+        <v>7.967170504560318</v>
       </c>
       <c r="U32" t="n">
         <v>0.1456022022535294</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9738005779255812</v>
+        <v>0.9738005779255813</v>
       </c>
       <c r="H33" t="n">
         <v>9.404863476281273</v>
       </c>
       <c r="I33" t="n">
-        <v>33.52778305577111</v>
+        <v>33.52778305577112</v>
       </c>
       <c r="J33" t="n">
-        <v>92.00279933813573</v>
+        <v>92.00279933813574</v>
       </c>
       <c r="K33" t="n">
         <v>157.2474380591497</v>
@@ -33514,7 +33514,7 @@
         <v>253.2693003088116</v>
       </c>
       <c r="O33" t="n">
-        <v>231.6919296084605</v>
+        <v>231.6919296084606</v>
       </c>
       <c r="P33" t="n">
         <v>185.9531998321226</v>
@@ -33523,16 +33523,16 @@
         <v>124.3047895611672</v>
       </c>
       <c r="R33" t="n">
-        <v>60.46105693471286</v>
+        <v>60.46105693471287</v>
       </c>
       <c r="S33" t="n">
         <v>18.08791862945102</v>
       </c>
       <c r="T33" t="n">
-        <v>3.925099697866705</v>
+        <v>3.925099697866706</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06406582749510405</v>
+        <v>0.06406582749510406</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8164016924512708</v>
+        <v>0.8164016924512709</v>
       </c>
       <c r="H34" t="n">
         <v>7.258553229248577</v>
       </c>
       <c r="I34" t="n">
-        <v>24.55142544208004</v>
+        <v>24.55142544208005</v>
       </c>
       <c r="J34" t="n">
-        <v>57.71959965630484</v>
+        <v>57.71959965630485</v>
       </c>
       <c r="K34" t="n">
-        <v>94.85103299570217</v>
+        <v>94.85103299570218</v>
       </c>
       <c r="L34" t="n">
         <v>121.3766661668008</v>
@@ -33590,22 +33590,22 @@
         <v>127.9746762085206</v>
       </c>
       <c r="N34" t="n">
-        <v>124.9317244457477</v>
+        <v>124.9317244457478</v>
       </c>
       <c r="O34" t="n">
         <v>115.3946683112033</v>
       </c>
       <c r="P34" t="n">
-        <v>98.7400737851973</v>
+        <v>98.74007378519731</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.36250899244233</v>
+        <v>68.36250899244234</v>
       </c>
       <c r="R34" t="n">
-        <v>36.70838882603622</v>
+        <v>36.70838882603623</v>
       </c>
       <c r="S34" t="n">
-        <v>14.22765494935532</v>
+        <v>14.22765494935533</v>
       </c>
       <c r="T34" t="n">
         <v>3.488261776837247</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K11" t="n">
         <v>88.4559235071053</v>
       </c>
       <c r="L11" t="n">
-        <v>169.4140874955722</v>
+        <v>133.9658244210567</v>
       </c>
       <c r="M11" t="n">
-        <v>323.4140627900584</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N11" t="n">
         <v>175.6335705822524</v>
       </c>
       <c r="O11" t="n">
-        <v>323.4140627900584</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P11" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.04379931418083</v>
+        <v>143.5832854297711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>67.65050272581634</v>
       </c>
       <c r="L12" t="n">
-        <v>188.6941641586793</v>
+        <v>121.3782391527568</v>
       </c>
       <c r="M12" t="n">
         <v>154.3517349101654</v>
@@ -35506,10 +35506,10 @@
         <v>139.0043707195717</v>
       </c>
       <c r="P12" t="n">
+        <v>100.6325614111757</v>
+      </c>
+      <c r="Q12" t="n">
         <v>323.4140627900584</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>33.31663640525321</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>177.5126906825122</v>
+        <v>78.34731982765602</v>
       </c>
       <c r="L13" t="n">
         <v>287.1621609888208</v>
@@ -35579,7 +35579,7 @@
         <v>316.1479876613125</v>
       </c>
       <c r="N13" t="n">
-        <v>210.8063879658504</v>
+        <v>309.9717588207066</v>
       </c>
       <c r="O13" t="n">
         <v>279.7429178482822</v>
@@ -35658,19 +35658,19 @@
         <v>169.8558571078987</v>
       </c>
       <c r="N14" t="n">
-        <v>182.8791932513797</v>
+        <v>175.6335705822524</v>
       </c>
       <c r="O14" t="n">
-        <v>157.0903257627083</v>
+        <v>300.4272551008796</v>
       </c>
       <c r="P14" t="n">
-        <v>111.4207863442044</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="Q14" t="n">
-        <v>323.4140627900584</v>
+        <v>52.04379931418083</v>
       </c>
       <c r="R14" t="n">
-        <v>76.71431963902019</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>67.65050272581634</v>
       </c>
       <c r="L15" t="n">
-        <v>285.3612038516609</v>
+        <v>121.3782391527568</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4140627900584</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N15" t="n">
-        <v>323.4140627900584</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O15" t="n">
         <v>139.0043707195717</v>
       </c>
       <c r="P15" t="n">
-        <v>98.86983501280798</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.31663640525321</v>
+        <v>297.3345765422135</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>27.64511218414578</v>
       </c>
       <c r="K16" t="n">
         <v>10.9924151848542</v>
@@ -35822,10 +35822,10 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P16" t="n">
-        <v>76.57177579605325</v>
+        <v>9.216871153251375</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.70979245865591</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>80.45047033864962</v>
+        <v>36.79272347659773</v>
       </c>
       <c r="K17" t="n">
-        <v>323.4140627900584</v>
+        <v>88.4559235071053</v>
       </c>
       <c r="L17" t="n">
         <v>133.9658244210567</v>
@@ -35898,16 +35898,16 @@
         <v>175.6335705822524</v>
       </c>
       <c r="O17" t="n">
-        <v>157.0903257627083</v>
+        <v>323.4140627900584</v>
       </c>
       <c r="P17" t="n">
-        <v>111.4207863442044</v>
+        <v>300.4272551008796</v>
       </c>
       <c r="Q17" t="n">
         <v>52.04379931418083</v>
       </c>
       <c r="R17" t="n">
-        <v>76.71431963902019</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>206.2603571358402</v>
       </c>
       <c r="K18" t="n">
-        <v>67.65050272581634</v>
+        <v>322.7274712451925</v>
       </c>
       <c r="L18" t="n">
         <v>121.3782391527568</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4140627900584</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N18" t="n">
         <v>167.8971874546449</v>
@@ -35980,13 +35980,13 @@
         <v>139.0043707195717</v>
       </c>
       <c r="P18" t="n">
-        <v>221.6676599160879</v>
+        <v>98.86983501280798</v>
       </c>
       <c r="Q18" t="n">
         <v>33.31663640525321</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10.9924151848542</v>
+        <v>78.34731982765602</v>
       </c>
       <c r="L19" t="n">
         <v>287.1621609888208</v>
@@ -36056,13 +36056,13 @@
         <v>309.9717588207066</v>
       </c>
       <c r="O19" t="n">
-        <v>64.66831071858499</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P19" t="n">
-        <v>219.8271099231555</v>
+        <v>9.216871153251375</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.81927300259483</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>133.9658244210567</v>
       </c>
       <c r="M20" t="n">
-        <v>300.6912510450977</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N20" t="n">
         <v>323.4140627900584</v>
@@ -36141,10 +36141,10 @@
         <v>111.4207863442044</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.04379931418083</v>
+        <v>259.5935128903999</v>
       </c>
       <c r="R20" t="n">
-        <v>76.71431963902019</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>154.3517349101654</v>
       </c>
       <c r="N21" t="n">
-        <v>323.4140627900584</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O21" t="n">
-        <v>247.5054355211184</v>
+        <v>139.0043707195717</v>
       </c>
       <c r="P21" t="n">
         <v>323.4140627900584</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.31663640525321</v>
+        <v>297.3345765422135</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>10.9924151848542</v>
       </c>
       <c r="L22" t="n">
-        <v>287.1621609888208</v>
+        <v>143.9068268617186</v>
       </c>
       <c r="M22" t="n">
         <v>316.1479876613125</v>
@@ -36293,7 +36293,7 @@
         <v>309.9717588207066</v>
       </c>
       <c r="O22" t="n">
-        <v>136.4875837211799</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P22" t="n">
         <v>219.8271099231555</v>
@@ -36360,7 +36360,7 @@
         <v>36.79272347659773</v>
       </c>
       <c r="K23" t="n">
-        <v>111.2843754154761</v>
+        <v>88.4559235071053</v>
       </c>
       <c r="L23" t="n">
         <v>568.3082806870162</v>
@@ -36378,7 +36378,7 @@
         <v>111.4207863442044</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.04379931418083</v>
+        <v>74.87225122255141</v>
       </c>
       <c r="R23" t="n">
         <v>76.71431963902019</v>
@@ -36442,10 +36442,10 @@
         <v>67.65050272581634</v>
       </c>
       <c r="L24" t="n">
-        <v>121.3782391527568</v>
+        <v>335.9510138035072</v>
       </c>
       <c r="M24" t="n">
-        <v>455.1604864698423</v>
+        <v>568.3082806870162</v>
       </c>
       <c r="N24" t="n">
         <v>568.3082806870162</v>
@@ -36457,7 +36457,7 @@
         <v>98.86983501280798</v>
       </c>
       <c r="Q24" t="n">
-        <v>361.0372052731778</v>
+        <v>33.31663640525321</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>94.43224664286561</v>
       </c>
       <c r="K25" t="n">
-        <v>208.1837034900313</v>
+        <v>244.299825141232</v>
       </c>
       <c r="L25" t="n">
-        <v>353.9492954475406</v>
+        <v>317.83317379634</v>
       </c>
       <c r="M25" t="n">
-        <v>316.1479876613125</v>
+        <v>382.9351221200324</v>
       </c>
       <c r="N25" t="n">
         <v>376.7588932794264</v>
       </c>
       <c r="O25" t="n">
-        <v>346.530052307002</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P25" t="n">
         <v>219.8271099231555</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>36.79272347659773</v>
+        <v>93.85384802165552</v>
       </c>
       <c r="K26" t="n">
-        <v>88.4559235071053</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="L26" t="n">
-        <v>256.6330973100995</v>
+        <v>133.9658244210567</v>
       </c>
       <c r="M26" t="n">
+        <v>169.8558571078987</v>
+      </c>
+      <c r="N26" t="n">
+        <v>175.6335705822524</v>
+      </c>
+      <c r="O26" t="n">
+        <v>157.0903257627083</v>
+      </c>
+      <c r="P26" t="n">
         <v>568.3082806870163</v>
       </c>
-      <c r="N26" t="n">
-        <v>568.3082806870163</v>
-      </c>
-      <c r="O26" t="n">
-        <v>568.3082806870163</v>
-      </c>
-      <c r="P26" t="n">
-        <v>111.4207863442044</v>
-      </c>
       <c r="Q26" t="n">
-        <v>52.04379931418083</v>
+        <v>383.2551847436321</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.558342004802398</v>
+        <v>206.2603571358402</v>
       </c>
       <c r="K27" t="n">
-        <v>480.216272465439</v>
+        <v>67.65050272581634</v>
       </c>
       <c r="L27" t="n">
-        <v>121.3782391527568</v>
+        <v>548.9783488432067</v>
       </c>
       <c r="M27" t="n">
         <v>154.3517349101654</v>
       </c>
       <c r="N27" t="n">
-        <v>416.4167268003072</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O27" t="n">
         <v>139.0043707195717</v>
@@ -36697,7 +36697,7 @@
         <v>361.0372052731778</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>300.5834431450328</v>
       </c>
       <c r="K29" t="n">
-        <v>88.45592350710527</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="L29" t="n">
-        <v>133.9658244210566</v>
+        <v>133.9658244210567</v>
       </c>
       <c r="M29" t="n">
-        <v>442.978619164433</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N29" t="n">
-        <v>175.6335705822523</v>
+        <v>175.6335705822524</v>
       </c>
       <c r="O29" t="n">
         <v>157.0903257627083</v>
       </c>
       <c r="P29" t="n">
-        <v>568.3082806870165</v>
+        <v>361.5786855636391</v>
       </c>
       <c r="Q29" t="n">
         <v>383.2551847436321</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358402</v>
       </c>
       <c r="K30" t="n">
-        <v>180.2224291773207</v>
+        <v>480.216272465439</v>
       </c>
       <c r="L30" t="n">
-        <v>568.3082806870165</v>
+        <v>464.1331479715086</v>
       </c>
       <c r="M30" t="n">
         <v>154.3517349101654</v>
@@ -36925,16 +36925,16 @@
         <v>167.8971874546449</v>
       </c>
       <c r="O30" t="n">
-        <v>568.3082806870165</v>
+        <v>139.0043707195717</v>
       </c>
       <c r="P30" t="n">
-        <v>568.3082806870165</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.31663640525319</v>
+        <v>33.31663640525321</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>27.64511218414577</v>
+        <v>27.64511218414578</v>
       </c>
       <c r="K31" t="n">
-        <v>177.5126906825121</v>
+        <v>177.5126906825122</v>
       </c>
       <c r="L31" t="n">
-        <v>287.1621609888207</v>
+        <v>287.1621609888208</v>
       </c>
       <c r="M31" t="n">
         <v>316.1479876613125</v>
@@ -37010,7 +37010,7 @@
         <v>219.8271099231555</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.81927300259481</v>
+        <v>71.81927300259483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>162.4882502772589</v>
+        <v>36.79272347659773</v>
       </c>
       <c r="K32" t="n">
-        <v>88.45592350710527</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="L32" t="n">
-        <v>133.9658244210566</v>
+        <v>133.9658244210567</v>
       </c>
       <c r="M32" t="n">
-        <v>169.8558571078986</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N32" t="n">
-        <v>175.6335705822523</v>
+        <v>175.6335705822524</v>
       </c>
       <c r="O32" t="n">
-        <v>568.3082806870165</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="P32" t="n">
-        <v>568.3082806870165</v>
+        <v>545.3628357372178</v>
       </c>
       <c r="Q32" t="n">
-        <v>383.2551847436321</v>
+        <v>52.04379931418083</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9.558342004802384</v>
+        <v>9.558342004802398</v>
       </c>
       <c r="K33" t="n">
-        <v>67.65050272581631</v>
+        <v>480.216272465439</v>
       </c>
       <c r="L33" t="n">
-        <v>568.3082806870165</v>
+        <v>121.3782391527568</v>
       </c>
       <c r="M33" t="n">
-        <v>568.3082806870165</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N33" t="n">
-        <v>568.3082806870165</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O33" t="n">
-        <v>299.1678295397098</v>
+        <v>350.7407258014366</v>
       </c>
       <c r="P33" t="n">
-        <v>98.86983501280795</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.31663640525319</v>
+        <v>361.0372052731778</v>
       </c>
       <c r="R33" t="n">
-        <v>36.78318426379676</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.71060885053834</v>
+        <v>84.71060885053831</v>
       </c>
       <c r="K34" t="n">
         <v>234.5781873489047</v>
@@ -37235,7 +37235,7 @@
         <v>344.2276576552133</v>
       </c>
       <c r="M34" t="n">
-        <v>373.2134843277051</v>
+        <v>373.213484327705</v>
       </c>
       <c r="N34" t="n">
         <v>367.0372554870991</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>36.79272347659773</v>
+        <v>224.548192230731</v>
       </c>
       <c r="K35" t="n">
         <v>88.4559235071053</v>
@@ -37314,22 +37314,22 @@
         <v>133.9658244210567</v>
       </c>
       <c r="M35" t="n">
-        <v>358.4849061967223</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N35" t="n">
-        <v>358.4849061967223</v>
+        <v>175.6335705822524</v>
       </c>
       <c r="O35" t="n">
-        <v>203.0921970570687</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P35" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.04379931418083</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="R35" t="n">
-        <v>76.71431963902019</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>121.3782391527568</v>
       </c>
       <c r="M36" t="n">
-        <v>154.3517349101654</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="N36" t="n">
-        <v>358.4849061967223</v>
+        <v>334.9288341940007</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0043707195717</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="P36" t="n">
-        <v>210.5423842461211</v>
+        <v>98.86983501280798</v>
       </c>
       <c r="Q36" t="n">
-        <v>358.4849061967223</v>
+        <v>33.31663640525321</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.64511218414578</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>10.9924151848542</v>
       </c>
       <c r="L37" t="n">
-        <v>287.1621609888208</v>
+        <v>282.7731967143686</v>
       </c>
       <c r="M37" t="n">
-        <v>284.1139112027134</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N37" t="n">
         <v>309.9717588207066</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>36.79272347659773</v>
+        <v>224.548192230731</v>
       </c>
       <c r="K38" t="n">
         <v>88.4559235071053</v>
@@ -37551,10 +37551,10 @@
         <v>133.9658244210567</v>
       </c>
       <c r="M38" t="n">
-        <v>174.7599902475611</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N38" t="n">
-        <v>358.4849061967223</v>
+        <v>175.6335705822524</v>
       </c>
       <c r="O38" t="n">
         <v>157.0903257627083</v>
@@ -37563,7 +37563,7 @@
         <v>111.4207863442044</v>
       </c>
       <c r="Q38" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.558342004802398</v>
+        <v>206.2603571358402</v>
       </c>
       <c r="K39" t="n">
-        <v>244.8762505666841</v>
+        <v>67.65050272581634</v>
       </c>
       <c r="L39" t="n">
-        <v>121.3782391527568</v>
+        <v>190.1533077333135</v>
       </c>
       <c r="M39" t="n">
         <v>154.3517349101654</v>
       </c>
       <c r="N39" t="n">
-        <v>358.4849061967223</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O39" t="n">
         <v>139.0043707195717</v>
       </c>
       <c r="P39" t="n">
-        <v>358.4849061967223</v>
+        <v>98.86983501280798</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.31663640525321</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>27.64511218414578</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>10.9924151848542</v>
@@ -37712,16 +37712,16 @@
         <v>316.1479876613125</v>
       </c>
       <c r="N40" t="n">
-        <v>309.9717588207066</v>
+        <v>305.5827945462544</v>
       </c>
       <c r="O40" t="n">
         <v>279.7429178482822</v>
       </c>
       <c r="P40" t="n">
-        <v>115.9737604619614</v>
+        <v>219.8271099231555</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.81927300259483</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K41" t="n">
-        <v>169.5043682792903</v>
+        <v>88.4559235071053</v>
       </c>
       <c r="L41" t="n">
-        <v>358.4849061967223</v>
+        <v>133.9658244210567</v>
       </c>
       <c r="M41" t="n">
-        <v>358.4849061967223</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N41" t="n">
         <v>175.6335705822524</v>
@@ -37800,7 +37800,7 @@
         <v>111.4207863442044</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.04379931418083</v>
+        <v>282.4496552824209</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>206.2603571358402</v>
       </c>
       <c r="K42" t="n">
-        <v>67.65050272581634</v>
+        <v>173.2087555701699</v>
       </c>
       <c r="L42" t="n">
         <v>121.3782391527568</v>
       </c>
       <c r="M42" t="n">
-        <v>223.1268034907213</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N42" t="n">
         <v>167.8971874546449</v>
@@ -37879,10 +37879,10 @@
         <v>98.86983501280798</v>
       </c>
       <c r="Q42" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="R42" t="n">
-        <v>36.78318426379677</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>27.64511218414578</v>
       </c>
       <c r="K43" t="n">
-        <v>10.9924151848542</v>
+        <v>117.7493044935654</v>
       </c>
       <c r="L43" t="n">
         <v>287.1621609888208</v>
@@ -37952,10 +37952,10 @@
         <v>309.9717588207066</v>
       </c>
       <c r="O43" t="n">
-        <v>175.8895683870881</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P43" t="n">
-        <v>219.8271099231555</v>
+        <v>9.216871153251375</v>
       </c>
       <c r="Q43" t="n">
         <v>71.81927300259483</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>36.79272347659773</v>
+        <v>224.548192230731</v>
       </c>
       <c r="K44" t="n">
         <v>88.4559235071053</v>
@@ -38025,19 +38025,19 @@
         <v>133.9658244210567</v>
       </c>
       <c r="M44" t="n">
-        <v>358.4849061967223</v>
+        <v>169.8558571078987</v>
       </c>
       <c r="N44" t="n">
-        <v>358.4849061967223</v>
+        <v>175.6335705822524</v>
       </c>
       <c r="O44" t="n">
-        <v>279.8065166960889</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P44" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.04379931418083</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.558342004802398</v>
+        <v>206.2603571358402</v>
       </c>
       <c r="K45" t="n">
-        <v>358.4849061967223</v>
+        <v>201.9787699139279</v>
       </c>
       <c r="L45" t="n">
         <v>121.3782391527568</v>
       </c>
       <c r="M45" t="n">
-        <v>231.3307980222045</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N45" t="n">
         <v>167.8971874546449</v>
@@ -38113,13 +38113,13 @@
         <v>139.0043707195717</v>
       </c>
       <c r="P45" t="n">
-        <v>358.4849061967223</v>
+        <v>358.4849061967226</v>
       </c>
       <c r="Q45" t="n">
         <v>33.31663640525321</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.78318426379677</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.64511218414578</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>177.5126906825122</v>
+        <v>10.9924151848542</v>
       </c>
       <c r="L46" t="n">
-        <v>287.1621609888208</v>
+        <v>282.7731967143686</v>
       </c>
       <c r="M46" t="n">
-        <v>117.5936357050556</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N46" t="n">
         <v>309.9717588207066</v>
